--- a/SiYang/ad/download_data/商品推广广告商品报告.xlsx
+++ b/SiYang/ad/download_data/商品推广广告商品报告.xlsx
@@ -84,13 +84,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.74609375" customWidth="true"/>
-    <col min="2" max="2" width="12.74609375" customWidth="true"/>
+    <col min="1" max="1" width="12.140625" customWidth="true"/>
+    <col min="2" max="2" width="12.140625" customWidth="true"/>
     <col min="3" max="3" width="4.51171875" customWidth="true"/>
     <col min="4" max="4" width="21.84375" customWidth="true"/>
     <col min="5" max="5" width="26.22265625" customWidth="true"/>
     <col min="6" max="6" width="32.78125" customWidth="true"/>
-    <col min="7" max="7" width="13.2578125" customWidth="true"/>
+    <col min="7" max="7" width="13.3046875" customWidth="true"/>
     <col min="8" max="8" width="7.72265625" customWidth="true"/>
     <col min="9" max="9" width="4.9375" customWidth="true"/>
     <col min="10" max="10" width="9.71875" customWidth="true"/>
@@ -101,7 +101,7 @@
     <col min="15" max="15" width="13.41796875" customWidth="true"/>
     <col min="16" max="16" width="11.23046875" customWidth="true"/>
     <col min="17" max="17" width="11.23046875" customWidth="true"/>
-    <col min="18" max="18" width="9.52734375" customWidth="true"/>
+    <col min="18" max="18" width="9.6171875" customWidth="true"/>
     <col min="19" max="19" width="17.43359375" customWidth="true"/>
     <col min="20" max="20" width="17.43359375" customWidth="true"/>
     <col min="21" max="21" width="17.65234375" customWidth="true"/>
@@ -222,10 +222,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
@@ -253,36 +253,30 @@
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>63.0</v>
+        <v>35.0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>0.031746031746031744</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <v>0.11499999999999999</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K2"/>
       <c r="L2" s="7" t="n">
-        <v>0.22999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="M2" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N2"/>
-      <c r="O2" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O2"/>
       <c r="P2" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R2" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R2"/>
       <c r="S2" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -298,10 +292,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
@@ -329,57 +323,57 @@
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1680.0</v>
+        <v>1972.0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.010119047619047618</v>
+        <v>0.012170385395537523</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>0.13588235294117645</v>
+        <v>0.1695833333333333</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>2.3099999999999996</v>
+        <v>4.069999999999999</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>10.9</v>
+        <v>43.6</v>
       </c>
       <c r="N3" s="6" t="n">
-        <v>0.2119266055045871</v>
+        <v>0.093348623853211</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>4.718614718614719</v>
+        <v>10.712530712530715</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="R3" s="6" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U3" s="7" t="n">
         <v>10.9</v>
       </c>
       <c r="V3" s="7" t="n">
-        <v>0.0</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
@@ -407,57 +401,57 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>10491.0</v>
+        <v>9102.0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>79.0</v>
+        <v>74.0</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.007530264035840244</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.12810126582278483</v>
+        <v>0.12432432432432432</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>10.120000000000001</v>
+        <v>9.2</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>67.48</v>
+        <v>28.79</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.14997036158861884</v>
+        <v>0.3195554011809656</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>6.66798418972332</v>
+        <v>3.1293478260869567</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.0759493670886076</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>39.6</v>
+        <v>19.8</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>27.880000000000003</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
@@ -485,36 +479,30 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>74.0</v>
+        <v>113.0</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.013513513513513513</v>
-      </c>
-      <c r="K5" s="7" t="n">
-        <v>0.13</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K5"/>
       <c r="L5" s="7" t="n">
-        <v>0.13</v>
+        <v>0.0</v>
       </c>
       <c r="M5" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N5"/>
-      <c r="O5" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O5"/>
       <c r="P5" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R5" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R5"/>
       <c r="S5" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -530,10 +518,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43282.0</v>
+        <v>43284.0</v>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
@@ -561,36 +549,30 @@
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>198.0</v>
+        <v>64.0</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.010101010101010102</v>
-      </c>
-      <c r="K6" s="7" t="n">
-        <v>0.09</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K6"/>
       <c r="L6" s="7" t="n">
-        <v>0.18</v>
+        <v>0.0</v>
       </c>
       <c r="M6" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N6"/>
-      <c r="O6" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O6"/>
       <c r="P6" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R6" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R6"/>
       <c r="S6" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -606,10 +588,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -637,46 +619,44 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>5001.0</v>
+        <v>843.0</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>43.0</v>
+        <v>7.0</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.008598280343931213</v>
+        <v>0.00830367734282325</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>0.24837209302325586</v>
+        <v>0.2785714285714286</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>10.680000000000001</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>1.1879866518353728</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N7"/>
       <c r="O7" s="5" t="n">
-        <v>0.8417602996254681</v>
+        <v>0.0</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0.023255813953488372</v>
+        <v>0.0</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T7" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>8.99</v>
+        <v>0.0</v>
       </c>
       <c r="V7" s="7" t="n">
         <v>0.0</v>
@@ -684,10 +664,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
@@ -715,57 +695,57 @@
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>1752.0</v>
+        <v>2564.0</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>26.0</v>
+        <v>41.0</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.014840182648401826</v>
+        <v>0.015990639625585022</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>0.21038461538461536</v>
+        <v>0.21195121951219514</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>5.47</v>
+        <v>8.690000000000001</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>10.9</v>
+        <v>40.78</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.501834862385321</v>
+        <v>0.21309465424227564</v>
       </c>
       <c r="O8" s="5" t="n">
-        <v>1.9926873857404024</v>
+        <v>4.692750287686996</v>
       </c>
       <c r="P8" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="S8" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R8" s="6" t="n">
-        <v>0.038461538461538464</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T8" s="4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U8" s="7" t="n">
-        <v>0.0</v>
+        <v>9.9</v>
       </c>
       <c r="V8" s="7" t="n">
-        <v>10.9</v>
+        <v>30.880000000000003</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
@@ -793,28 +773,28 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>735.0</v>
+        <v>467.0</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.0163265306122449</v>
+        <v>0.014989293361884369</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>0.34</v>
+        <v>0.18714285714285714</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>4.08</v>
+        <v>1.31</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>8.99</v>
+        <v>9.9</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.45383759733036705</v>
+        <v>0.13232323232323231</v>
       </c>
       <c r="O9" s="5" t="n">
-        <v>2.2034313725490198</v>
+        <v>7.557251908396947</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>1.0</v>
@@ -823,27 +803,27 @@
         <v>1.0</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>0.08333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T9" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U9" s="7" t="n">
-        <v>8.99</v>
+        <v>0.0</v>
       </c>
       <c r="V9" s="7" t="n">
-        <v>0.0</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43280.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
@@ -871,19 +851,19 @@
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>635.0</v>
+        <v>1694.0</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.004724409448818898</v>
+        <v>0.0023612750885478157</v>
       </c>
       <c r="K10" s="7" t="n">
-        <v>0.22999999999999998</v>
+        <v>0.3575</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>0.69</v>
+        <v>1.43</v>
       </c>
       <c r="M10" s="7" t="n">
         <v>0.0</v>
@@ -916,10 +896,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
@@ -947,57 +927,57 @@
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>192523.0</v>
+        <v>183764.0</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>506.0</v>
+        <v>435.0</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.0026282574030115887</v>
+        <v>0.002367166583226312</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>0.5448418972332015</v>
+        <v>0.5501379310344826</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>275.69</v>
+        <v>239.30999999999992</v>
       </c>
       <c r="M11" s="7" t="n">
-        <v>1778.0400000000006</v>
+        <v>1367.2200000000003</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.15505275471867894</v>
+        <v>0.1750340106200903</v>
       </c>
       <c r="O11" s="5" t="n">
-        <v>6.449417824367952</v>
+        <v>5.713175379215246</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>76.0</v>
+        <v>59.0</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>78.0</v>
+        <v>60.0</v>
       </c>
       <c r="R11" s="6" t="n">
-        <v>0.15019762845849802</v>
+        <v>0.135632183908046</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="T11" s="4" t="n">
-        <v>47.0</v>
+        <v>37.0</v>
       </c>
       <c r="U11" s="7" t="n">
-        <v>712.6900000000002</v>
+        <v>528.7700000000001</v>
       </c>
       <c r="V11" s="7" t="n">
-        <v>1065.3500000000004</v>
+        <v>838.4500000000002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
@@ -1025,57 +1005,57 @@
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>40519.0</v>
+        <v>43516.0</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>52.0</v>
+        <v>63.0</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.0012833485525309113</v>
+        <v>0.001447743358764592</v>
       </c>
       <c r="K12" s="7" t="n">
-        <v>0.5078846153846153</v>
+        <v>0.44666666666666655</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>26.409999999999993</v>
+        <v>28.139999999999993</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>213.91000000000003</v>
+        <v>247.44000000000003</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.12346313870319287</v>
+        <v>0.11372453928225021</v>
       </c>
       <c r="O12" s="5" t="n">
-        <v>8.099583491101859</v>
+        <v>8.793176972281453</v>
       </c>
       <c r="P12" s="4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Q12" s="4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R12" s="6" t="n">
+        <v>0.1746031746031746</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T12" s="4" t="n">
         <v>9.0</v>
       </c>
-      <c r="Q12" s="4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="R12" s="6" t="n">
-        <v>0.17307692307692307</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>10.0</v>
-      </c>
       <c r="U12" s="7" t="n">
-        <v>0.0</v>
+        <v>43.8</v>
       </c>
       <c r="V12" s="7" t="n">
-        <v>213.91000000000003</v>
+        <v>203.64000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
@@ -1103,57 +1083,57 @@
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>17685.0</v>
+        <v>20234.0</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>52.0</v>
+        <v>59.0</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.0029403449250777493</v>
+        <v>0.0029158841553820303</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>0.5874999999999999</v>
+        <v>0.5052542372881357</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>30.549999999999997</v>
+        <v>29.810000000000006</v>
       </c>
       <c r="M13" s="7" t="n">
-        <v>154.74999999999997</v>
+        <v>294.51</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.19741518578352182</v>
+        <v>0.10121897388883232</v>
       </c>
       <c r="O13" s="5" t="n">
-        <v>5.0654664484451715</v>
+        <v>9.879570613887955</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="R13" s="6" t="n">
-        <v>0.11538461538461538</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" s="4" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="U13" s="7" t="n">
-        <v>22.9</v>
+        <v>0.0</v>
       </c>
       <c r="V13" s="7" t="n">
-        <v>131.85</v>
+        <v>294.51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
@@ -1181,55 +1161,57 @@
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>9512.0</v>
+        <v>12074.0</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0023128679562657694</v>
+        <v>0.002650323008116614</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>0.47818181818181815</v>
+        <v>0.5215624999999999</v>
       </c>
       <c r="L14" s="7" t="n">
-        <v>10.52</v>
+        <v>16.689999999999998</v>
       </c>
       <c r="M14" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N14"/>
+        <v>42.98</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.3883201489064681</v>
+      </c>
       <c r="O14" s="5" t="n">
-        <v>0.0</v>
+        <v>2.5751947273816658</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R14" s="6" t="n">
-        <v>0.0</v>
+        <v>0.0625</v>
       </c>
       <c r="S14" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T14" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U14" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V14" s="7" t="n">
-        <v>0.0</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
@@ -1257,57 +1239,57 @@
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>18186.0</v>
+        <v>9979.0</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>76.0</v>
+        <v>54.0</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.004179038821071153</v>
+        <v>0.005411363864114641</v>
       </c>
       <c r="K15" s="7" t="n">
-        <v>0.6524999999999999</v>
+        <v>0.5664814814814814</v>
       </c>
       <c r="L15" s="7" t="n">
-        <v>49.58999999999999</v>
+        <v>30.589999999999996</v>
       </c>
       <c r="M15" s="7" t="n">
-        <v>218.90000000000003</v>
+        <v>206.91000000000003</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.226541799908634</v>
+        <v>0.14784205693296598</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>4.414196410566648</v>
+        <v>6.763975155279505</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="R15" s="6" t="n">
-        <v>0.13157894736842105</v>
+        <v>0.14814814814814814</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="T15" s="4" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="U15" s="7" t="n">
-        <v>68.97</v>
+        <v>183.92000000000002</v>
       </c>
       <c r="V15" s="7" t="n">
-        <v>149.92999999999998</v>
+        <v>22.99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
@@ -1335,55 +1317,57 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>2837.0</v>
+        <v>3944.0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.012336975678533662</v>
+        <v>0.009127789046653144</v>
       </c>
       <c r="K16" s="7" t="n">
-        <v>0.23</v>
+        <v>0.185</v>
       </c>
       <c r="L16" s="7" t="n">
-        <v>8.05</v>
+        <v>6.66</v>
       </c>
       <c r="M16" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N16"/>
+        <v>15.9</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>0.4188679245283019</v>
+      </c>
       <c r="O16" s="5" t="n">
-        <v>0.0</v>
+        <v>2.3873873873873874</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R16" s="6" t="n">
-        <v>0.0</v>
+        <v>0.027777777777777776</v>
       </c>
       <c r="S16" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T16" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U16" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V16" s="7" t="n">
-        <v>0.0</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
@@ -1411,57 +1395,57 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>5126.0</v>
+        <v>12511.0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>30.0</v>
+        <v>47.0</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.005852516582130316</v>
+        <v>0.003756694109183918</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>0.24166666666666667</v>
+        <v>0.25659574468085106</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>7.25</v>
+        <v>12.06</v>
       </c>
       <c r="M17" s="7" t="n">
-        <v>29.3</v>
+        <v>50.4</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.24744027303754265</v>
+        <v>0.2392857142857143</v>
       </c>
       <c r="O17" s="5" t="n">
-        <v>4.041379310344828</v>
+        <v>4.17910447761194</v>
       </c>
       <c r="P17" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q17" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R17" s="6" t="n">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S17" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q17" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R17" s="6" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="S17" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T17" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U17" s="7" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="V17" s="7" t="n">
-        <v>29.3</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
@@ -1489,57 +1473,55 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>1008.0</v>
+        <v>1119.0</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.015873015873015872</v>
+        <v>0.010723860589812333</v>
       </c>
       <c r="K18" s="7" t="n">
-        <v>0.18125000000000002</v>
+        <v>0.11750000000000001</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>2.9000000000000004</v>
+        <v>1.4100000000000001</v>
       </c>
       <c r="M18" s="7" t="n">
-        <v>56.98</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>0.050895050895050906</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N18"/>
       <c r="O18" s="5" t="n">
-        <v>19.648275862068964</v>
+        <v>0.0</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R18" s="6" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="S18" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T18" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U18" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V18" s="7" t="n">
-        <v>56.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
@@ -1567,36 +1549,30 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>244.0</v>
+        <v>109.0</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.004098360655737705</v>
-      </c>
-      <c r="K19" s="7" t="n">
-        <v>0.25</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K19"/>
       <c r="L19" s="7" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="M19" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N19"/>
-      <c r="O19" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O19"/>
       <c r="P19" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R19" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R19"/>
       <c r="S19" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1612,10 +1588,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
@@ -1643,19 +1619,19 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>242.0</v>
+        <v>105.0</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.012396694214876033</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="K20" s="7" t="n">
-        <v>0.24666666666666667</v>
+        <v>0.17</v>
       </c>
       <c r="L20" s="7" t="n">
-        <v>0.74</v>
+        <v>0.17</v>
       </c>
       <c r="M20" s="7" t="n">
         <v>0.0</v>
@@ -1688,10 +1664,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
@@ -1719,19 +1695,19 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>1419.0</v>
+        <v>847.0</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.010570824524312896</v>
+        <v>0.009445100354191263</v>
       </c>
       <c r="K21" s="7" t="n">
-        <v>0.1673333333333333</v>
+        <v>0.16125</v>
       </c>
       <c r="L21" s="7" t="n">
-        <v>2.51</v>
+        <v>1.29</v>
       </c>
       <c r="M21" s="7" t="n">
         <v>0.0</v>
@@ -1764,10 +1740,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
@@ -1795,19 +1771,19 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>277.0</v>
+        <v>135.0</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.0036101083032490976</v>
+        <v>0.014814814814814815</v>
       </c>
       <c r="K22" s="7" t="n">
-        <v>0.23</v>
+        <v>0.14500000000000002</v>
       </c>
       <c r="L22" s="7" t="n">
-        <v>0.23</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="M22" s="7" t="n">
         <v>0.0</v>
@@ -1840,10 +1816,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43282.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
@@ -1871,19 +1847,19 @@
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>1062.0</v>
+        <v>174.0</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.006591337099811676</v>
+        <v>0.017241379310344827</v>
       </c>
       <c r="K23" s="7" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="L23" s="7" t="n">
-        <v>0.91</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="M23" s="7" t="n">
         <v>0.0</v>
@@ -1916,10 +1892,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43277.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
@@ -1933,26 +1909,28 @@
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>雏菊桌布</t>
+          <t>字母桌布</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW090*90CM</t>
+          <t>YMQYQDZMZM140*140CM</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJ1XU</t>
+          <t>B01C8QGX6I</t>
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>0.0</v>
+        <v>179.0</v>
       </c>
       <c r="I24" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="J24"/>
+      <c r="J24" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K24"/>
       <c r="L24" s="7" t="n">
         <v>0.0</v>
@@ -1984,10 +1962,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
@@ -2006,28 +1984,28 @@
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>YMQYQDZMZM140*140CM</t>
+          <t>YMQYQJISZMSS100*140CM</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>B01C8QGX6I</t>
+          <t>B01C8QK07Q</t>
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>184.0</v>
+        <v>148.0</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.016304347826086956</v>
+        <v>0.013513513513513513</v>
       </c>
       <c r="K25" s="7" t="n">
-        <v>0.18666666666666668</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="L25" s="7" t="n">
-        <v>0.56</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="M25" s="7" t="n">
         <v>0.0</v>
@@ -2060,10 +2038,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
@@ -2072,26 +2050,26 @@
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>桌布-二</t>
+          <t>雨衣测</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>字母桌布</t>
+          <t>绿色雨衣YY</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>YMQYQJISZMSS100*140CM</t>
+          <t>YY2127GR</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>B01C8QK07Q</t>
+          <t>B01AXMOPYQ</t>
         </is>
       </c>
       <c r="H26" s="4" t="n">
-        <v>115.0</v>
+        <v>3.0</v>
       </c>
       <c r="I26" s="4" t="n">
         <v>0.0</v>
@@ -2130,10 +2108,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
@@ -2142,55 +2120,49 @@
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>桌布-精准一</t>
+          <t>测新儿童雨衣KS</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>地图桌布</t>
+          <t>KS377</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>MZYSZHUOBUDTLEIS100*140CM</t>
+          <t>YY-IULCY-KS377-BIRD-M</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>B074PL73NX</t>
+          <t>B07CYV2X4S</t>
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>1167.0</v>
+        <v>26.0</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.004284490145672665</v>
-      </c>
-      <c r="K27" s="7" t="n">
-        <v>0.32999999999999996</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K27"/>
       <c r="L27" s="7" t="n">
-        <v>1.65</v>
+        <v>0.0</v>
       </c>
       <c r="M27" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N27"/>
-      <c r="O27" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O27"/>
       <c r="P27" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R27" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R27"/>
       <c r="S27" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2206,10 +2178,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43278.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
@@ -2218,26 +2190,26 @@
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>宠物毛毯测</t>
+          <t>测新儿童雨衣KS</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240</t>
+          <t>KS377</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240-BONE-M</t>
+          <t>YY-IULCY-KS377-HEAD-M</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>B079G44DCB</t>
+          <t>B07CYVFKH9</t>
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>29.0</v>
+        <v>4.0</v>
       </c>
       <c r="I28" s="4" t="n">
         <v>0.0</v>
@@ -2276,10 +2248,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43277.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
@@ -2288,26 +2260,26 @@
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>宠物毛毯测</t>
+          <t>测新儿童雨衣KS</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240</t>
+          <t>KS377</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240-DOT-L</t>
+          <t>YY-IULCY-KS377-PLANT-M</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>B07C8NVMGF</t>
+          <t>B07CYTRZVB</t>
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>38.0</v>
+        <v>32.0</v>
       </c>
       <c r="I29" s="4" t="n">
         <v>0.0</v>
@@ -2346,10 +2318,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43278.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
@@ -2358,49 +2330,55 @@
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>宠物毛毯测</t>
+          <t>测新儿童雨衣KS</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240</t>
+          <t>ks374</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240-PAW-L</t>
+          <t>YY-IULUY-KS374-DB-L</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>B079G2PMNQ</t>
+          <t>B07CYHC2KN</t>
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>25.0</v>
+        <v>70.0</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K30"/>
+        <v>0.014285714285714285</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <v>0.15</v>
+      </c>
       <c r="L30" s="7" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
       <c r="M30" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N30"/>
-      <c r="O30"/>
+      <c r="O30" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P30" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R30"/>
+      <c r="R30" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S30" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2416,10 +2394,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43278.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
@@ -2428,49 +2406,55 @@
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>宠物毛毯测</t>
+          <t>测新儿童雨衣KS</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240</t>
+          <t>ks374</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240-STRAWBERRY-L</t>
+          <t>YY-IULUY-KS374-YL-M</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>B07C89YKT7</t>
+          <t>B07CYMDJZV</t>
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>83.0</v>
+        <v>177.0</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K31"/>
+        <v>0.022598870056497175</v>
+      </c>
+      <c r="K31" s="7" t="n">
+        <v>0.16</v>
+      </c>
       <c r="L31" s="7" t="n">
-        <v>0.0</v>
+        <v>0.64</v>
       </c>
       <c r="M31" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N31"/>
-      <c r="O31"/>
+      <c r="O31" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P31" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R31"/>
+      <c r="R31" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S31" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2486,10 +2470,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
@@ -2498,49 +2482,55 @@
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>桌布-精准一</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>绿色雨衣YY</t>
+          <t>雏菊桌布</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>YY2127GR</t>
+          <t>YMQYQXDHW0140*180CM</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>B01AXMOPYQ</t>
+          <t>B01C8QJ734</t>
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>53.0</v>
+        <v>534.0</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K32"/>
+        <v>0.011235955056179777</v>
+      </c>
+      <c r="K32" s="7" t="n">
+        <v>0.14833333333333334</v>
+      </c>
       <c r="L32" s="7" t="n">
-        <v>0.0</v>
+        <v>0.89</v>
       </c>
       <c r="M32" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N32"/>
-      <c r="O32"/>
+      <c r="O32" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P32" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R32"/>
+      <c r="R32" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S32" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2556,10 +2546,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
@@ -2568,57 +2558,65 @@
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>测新儿童雨衣KS</t>
+          <t>桌布-精准一</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>KS377</t>
+          <t>雏菊桌布</t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS377-ANCHOR-L</t>
+          <t>YMQYQXDHW0140*200CM</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>B07CYZ9KY7</t>
+          <t>B01C8QJ89C</t>
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>23.0</v>
+        <v>475.0</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K33"/>
+        <v>0.00631578947368421</v>
+      </c>
+      <c r="K33" s="7" t="n">
+        <v>0.25666666666666665</v>
+      </c>
       <c r="L33" s="7" t="n">
-        <v>0.0</v>
+        <v>0.77</v>
       </c>
       <c r="M33" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N33"/>
-      <c r="O33"/>
+        <v>25.99</v>
+      </c>
+      <c r="N33" s="6" t="n">
+        <v>0.02962677953058869</v>
+      </c>
+      <c r="O33" s="5" t="n">
+        <v>33.75324675324675</v>
+      </c>
       <c r="P33" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R33"/>
+        <v>1.0</v>
+      </c>
+      <c r="R33" s="6" t="n">
+        <v>0.33333333333333326</v>
+      </c>
       <c r="S33" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T33" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U33" s="7" t="n">
-        <v>0.0</v>
+        <v>25.99</v>
       </c>
       <c r="V33" s="7" t="n">
         <v>0.0</v>
@@ -2626,10 +2624,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
@@ -2638,38 +2636,38 @@
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>测新儿童雨衣KS</t>
+          <t>桌布-精准一</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>KS377</t>
+          <t>雏菊桌布</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS377-BIRD-M</t>
+          <t>YMQYQXDHW0140*220CM</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>B07CYV2X4S</t>
+          <t>B01C8QJ9AU</t>
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>82.0</v>
+        <v>1187.0</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>0.012195121951219513</v>
+        <v>0.015164279696714406</v>
       </c>
       <c r="K34" s="7" t="n">
-        <v>0.2</v>
+        <v>0.22388888888888892</v>
       </c>
       <c r="L34" s="7" t="n">
-        <v>0.2</v>
+        <v>4.03</v>
       </c>
       <c r="M34" s="7" t="n">
         <v>0.0</v>
@@ -2702,10 +2700,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
@@ -2714,26 +2712,26 @@
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>测新儿童雨衣KS</t>
+          <t>chair cover</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>KS377</t>
+          <t>SXHL</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS377-HEAD-M</t>
+          <t>SXHLYITAO4-LH-001DHS40x60CM</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>B07CYVFKH9</t>
+          <t>B071NGGPFS</t>
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>58.0</v>
+        <v>101.0</v>
       </c>
       <c r="I35" s="4" t="n">
         <v>0.0</v>
@@ -2772,10 +2770,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
@@ -2784,38 +2782,38 @@
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>测新儿童雨衣KS</t>
+          <t>chair cover</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>KS377</t>
+          <t>SXHL</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS377-PLANT-M</t>
+          <t>SXHLYITAO5-LH-001YHS40x60CM</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>B07CYTRZVB</t>
+          <t>B071YNH8GF</t>
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>139.0</v>
+        <v>109.0</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J36" s="6" t="n">
-        <v>0.014388489208633094</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="K36" s="7" t="n">
-        <v>0.20500000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="L36" s="7" t="n">
-        <v>0.41000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="M36" s="7" t="n">
         <v>0.0</v>
@@ -2848,10 +2846,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
@@ -2860,55 +2858,49 @@
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>测新儿童雨衣KS</t>
+          <t>chair cover</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>ks374</t>
+          <t>SXHL</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>YY-IULUY-KS374-DB-L</t>
+          <t>SXHLYITAO2-LH-001SKFS40x60CM</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>B07CYHC2KN</t>
+          <t>B072HHBCK2</t>
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>190.0</v>
+        <v>110.0</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>0.005263157894736842</v>
-      </c>
-      <c r="K37" s="7" t="n">
-        <v>0.09</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K37"/>
       <c r="L37" s="7" t="n">
-        <v>0.09</v>
+        <v>0.0</v>
       </c>
       <c r="M37" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N37"/>
-      <c r="O37" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O37"/>
       <c r="P37" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R37" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R37"/>
       <c r="S37" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2924,10 +2916,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
@@ -2936,55 +2928,49 @@
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>测新儿童雨衣KS</t>
+          <t>雨衣测</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>ks374</t>
+          <t>ks371-pockets</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>YY-IULUY-KS374-YL-M</t>
+          <t>YY-IULCY-KS371-BL-M</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>B07CYMDJZV</t>
+          <t>B07CYX5S6S</t>
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>109.0</v>
+        <v>11.0</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.009174311926605505</v>
-      </c>
-      <c r="K38" s="7" t="n">
-        <v>0.14</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K38"/>
       <c r="L38" s="7" t="n">
-        <v>0.14</v>
+        <v>0.0</v>
       </c>
       <c r="M38" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N38"/>
-      <c r="O38" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O38"/>
       <c r="P38" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R38" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R38"/>
       <c r="S38" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3000,10 +2986,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
@@ -3012,55 +2998,49 @@
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>桌布-精准一</t>
+          <t>雨衣测</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>雏菊桌布</t>
+          <t>ks371-pockets</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0140*180CM</t>
+          <t>YY-IULCY-KS371-GN-M</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJ734</t>
+          <t>B07CYQ24CG</t>
         </is>
       </c>
       <c r="H39" s="4" t="n">
-        <v>400.0</v>
+        <v>5.0</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="K39" s="7" t="n">
-        <v>0.09666666666666668</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K39"/>
       <c r="L39" s="7" t="n">
-        <v>0.29000000000000004</v>
+        <v>0.0</v>
       </c>
       <c r="M39" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N39"/>
-      <c r="O39" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O39"/>
       <c r="P39" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R39" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R39"/>
       <c r="S39" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3076,10 +3056,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
@@ -3088,55 +3068,49 @@
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>桌布-精准一</t>
+          <t>雨衣测</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>雏菊桌布</t>
+          <t>ks371-pockets</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0140*200CM</t>
+          <t>YY-IULCY-KS371-PP-M</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJ89C</t>
+          <t>B07CYTN2MZ</t>
         </is>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1904.0</v>
+        <v>8.0</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" s="6" t="n">
-        <v>0.0010504201680672268</v>
-      </c>
-      <c r="K40" s="7" t="n">
-        <v>0.135</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K40"/>
       <c r="L40" s="7" t="n">
-        <v>0.27</v>
+        <v>0.0</v>
       </c>
       <c r="M40" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N40"/>
-      <c r="O40" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O40"/>
       <c r="P40" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R40" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R40"/>
       <c r="S40" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3152,10 +3126,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
@@ -3164,55 +3138,49 @@
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>桌布-精准一</t>
+          <t>雨衣测</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>雏菊桌布</t>
+          <t>ks371-pockets</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0140*220CM</t>
+          <t>YY-IULCY-KS371-WT-XL</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJ9AU</t>
+          <t>B07CYDQFTF</t>
         </is>
       </c>
       <c r="H41" s="4" t="n">
-        <v>2221.0</v>
+        <v>10.0</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="J41" s="6" t="n">
-        <v>0.0022512381809995496</v>
-      </c>
-      <c r="K41" s="7" t="n">
-        <v>0.17400000000000002</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K41"/>
       <c r="L41" s="7" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="M41" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N41"/>
-      <c r="O41" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O41"/>
       <c r="P41" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R41" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R41"/>
       <c r="S41" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3228,10 +3196,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
@@ -3240,26 +3208,26 @@
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>chair cover</t>
+          <t>雨衣测</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>SXHL</t>
+          <t>ks371-pockets</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>SXHLYITAO4-LH-001DHS40x60CM</t>
+          <t>YY-IULCY-KS371-YL-M</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>B071NGGPFS</t>
+          <t>B07CYN2LST</t>
         </is>
       </c>
       <c r="H42" s="4" t="n">
-        <v>176.0</v>
+        <v>4.0</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>0.0</v>
@@ -3298,10 +3266,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43282.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
@@ -3310,26 +3278,26 @@
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>chair cover</t>
+          <t>雨衣测</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>SXHL</t>
+          <t>ks372-bag cover</t>
         </is>
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>SXHLYITAO5-LH-001YHS40x60CM</t>
+          <t>YY-IULCY-KS372-PK-XL</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>B071YNH8GF</t>
+          <t>B07CYLRT43</t>
         </is>
       </c>
       <c r="H43" s="4" t="n">
-        <v>112.0</v>
+        <v>7.0</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>0.0</v>
@@ -3368,10 +3336,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
@@ -3380,55 +3348,47 @@
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>chair cover</t>
+          <t>雨衣测</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>SXHL</t>
+          <t>ks372-bag cover</t>
         </is>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>SXHLYITAO2-LH-001SKFS40x60CM</t>
+          <t>YY-IULCY-KS372-PP-M</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>B072HHBCK2</t>
+          <t>B07CYQPSKD</t>
         </is>
       </c>
       <c r="H44" s="4" t="n">
-        <v>138.0</v>
+        <v>0.0</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J44" s="6" t="n">
-        <v>0.007246376811594203</v>
-      </c>
-      <c r="K44" s="7" t="n">
-        <v>0.16</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44"/>
       <c r="L44" s="7" t="n">
-        <v>0.16</v>
+        <v>0.0</v>
       </c>
       <c r="M44" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N44"/>
-      <c r="O44" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O44"/>
       <c r="P44" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R44" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R44"/>
       <c r="S44" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3444,10 +3404,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43280.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
@@ -3461,21 +3421,21 @@
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>绿色雨衣YY</t>
+          <t>ks372-bag cover</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-C9002-AG</t>
+          <t>YY-IULCY-KS372-WT-M</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>B07CYRQX7L</t>
+          <t>B07CYZFTT7</t>
         </is>
       </c>
       <c r="H45" s="4" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>0.0</v>
@@ -3514,10 +3474,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
@@ -3531,21 +3491,21 @@
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>ks371-pockets</t>
+          <t>ks372-bag cover</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS371-BL-M</t>
+          <t>YY-IULCY-KS372-YL-M</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>B07CYX5S6S</t>
+          <t>B07CYN7Z12</t>
         </is>
       </c>
       <c r="H46" s="4" t="n">
-        <v>45.0</v>
+        <v>2.0</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>0.0</v>
@@ -3584,10 +3544,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
@@ -3601,21 +3561,21 @@
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>ks371-pockets</t>
+          <t>ks369370-transparent color</t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS371-GN-M</t>
+          <t>YY-IULCY-KS370-BL-M</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>B07CYQ24CG</t>
+          <t>B07CYRF2RW</t>
         </is>
       </c>
       <c r="H47" s="4" t="n">
-        <v>32.0</v>
+        <v>8.0</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>0.0</v>
@@ -3654,10 +3614,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43282.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
@@ -3671,21 +3631,21 @@
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>ks371-pockets</t>
+          <t>ks369370-transparent color</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS371-PP-M</t>
+          <t>YY-IULCY-KS377-ANCHOR-L</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>B07CYTN2MZ</t>
+          <t>B07CYZ9KY7</t>
         </is>
       </c>
       <c r="H48" s="4" t="n">
-        <v>36.0</v>
+        <v>8.0</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>0.0</v>
@@ -3724,10 +3684,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43276.0</v>
+        <v>43287.0</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
@@ -3736,26 +3696,26 @@
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>waterproof shoe covers</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>ks371-pockets</t>
+          <t>high tube</t>
         </is>
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS371-WT-XL</t>
+          <t>YX-IUCY-819-N5-L</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>B07CYDQFTF</t>
+          <t>B07D75HFLV</t>
         </is>
       </c>
       <c r="H49" s="4" t="n">
-        <v>96.0</v>
+        <v>57.0</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>0.0</v>
@@ -3794,10 +3754,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
@@ -3806,26 +3766,26 @@
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>waterproof shoe covers</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>ks371-pockets</t>
+          <t>high tube</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS371-YL-M</t>
+          <t>YX-IUCY-819-WO-XL</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>B07CYN2LST</t>
+          <t>B07D75MGJ7</t>
         </is>
       </c>
       <c r="H50" s="4" t="n">
-        <v>11.0</v>
+        <v>198.0</v>
       </c>
       <c r="I50" s="4" t="n">
         <v>0.0</v>
@@ -3864,10 +3824,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
@@ -3876,55 +3836,49 @@
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>tby精准关键词</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>ks372-bag cover</t>
+          <t>YY</t>
         </is>
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS372-PK-XL</t>
+          <t>YY1100W0L</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>B07CYLRT43</t>
+          <t>B01AXMOYLU</t>
         </is>
       </c>
       <c r="H51" s="4" t="n">
-        <v>43.0</v>
+        <v>15.0</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="K51" s="7" t="n">
-        <v>0.22999999999999998</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K51"/>
       <c r="L51" s="7" t="n">
-        <v>0.69</v>
+        <v>0.0</v>
       </c>
       <c r="M51" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N51"/>
-      <c r="O51" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O51"/>
       <c r="P51" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R51" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R51"/>
       <c r="S51" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3940,10 +3894,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
@@ -3952,68 +3906,76 @@
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>waterproof shoe covers</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>ks372-bag cover</t>
+          <t>middle tube</t>
         </is>
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS372-PP-M</t>
+          <t>YX-IUCY-518-BO-XL</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>B07CYQPSKD</t>
+          <t>B07D74TWXY</t>
         </is>
       </c>
       <c r="H52" s="4" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="I52" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J52" s="6" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="K52" s="7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L52" s="7" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M52" s="7" t="n">
         <v>8.0</v>
       </c>
-      <c r="I52" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J52" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K52"/>
-      <c r="L52" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M52" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N52"/>
-      <c r="O52"/>
+      <c r="N52" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O52" s="5" t="n">
+        <v>25.0</v>
+      </c>
       <c r="P52" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R52"/>
+        <v>1.0</v>
+      </c>
+      <c r="R52" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="S52" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T52" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U52" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V52" s="7" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
@@ -4022,49 +3984,55 @@
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>waterproof shoe covers</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>ks372-bag cover</t>
+          <t>middle tube</t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS372-WT-M</t>
+          <t>YX-IUCY-518-N5-XL</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>B07CYZFTT7</t>
+          <t>B07D74DCPD</t>
         </is>
       </c>
       <c r="H53" s="4" t="n">
-        <v>22.0</v>
+        <v>143.0</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J53" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K53"/>
+        <v>0.006993006993006993</v>
+      </c>
+      <c r="K53" s="7" t="n">
+        <v>0.2</v>
+      </c>
       <c r="L53" s="7" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="M53" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N53"/>
-      <c r="O53"/>
+      <c r="O53" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P53" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R53"/>
+      <c r="R53" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S53" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4080,10 +4048,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43276.0</v>
+        <v>43286.0</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
@@ -4092,55 +4060,49 @@
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>waterproof shoe covers</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>ks372-bag cover</t>
+          <t>middle tube</t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS372-YL-M</t>
+          <t>YX-IUCY-518-WO-L</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>B07CYN7Z12</t>
+          <t>B07D74JGP3</t>
         </is>
       </c>
       <c r="H54" s="4" t="n">
-        <v>33.0</v>
+        <v>38.0</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J54" s="6" t="n">
-        <v>0.030303030303030304</v>
-      </c>
-      <c r="K54" s="7" t="n">
-        <v>0.12</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K54"/>
       <c r="L54" s="7" t="n">
-        <v>0.12</v>
+        <v>0.0</v>
       </c>
       <c r="M54" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N54"/>
-      <c r="O54" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O54"/>
       <c r="P54" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R54" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R54"/>
       <c r="S54" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4156,10 +4118,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
@@ -4168,74 +4130,76 @@
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>tby精准关键词</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>ks369370-transparent color</t>
+          <t>Decoration</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS370-BL-M</t>
+          <t>TBYPRBONE-M</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>B07CYRF2RW</t>
+          <t>B01N0OX2DR</t>
         </is>
       </c>
       <c r="H55" s="4" t="n">
-        <v>66.0</v>
+        <v>1062.0</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="J55" s="6" t="n">
-        <v>0.015151515151515152</v>
+        <v>0.010357815442561208</v>
       </c>
       <c r="K55" s="7" t="n">
-        <v>0.13</v>
+        <v>0.2290909090909091</v>
       </c>
       <c r="L55" s="7" t="n">
-        <v>0.13</v>
+        <v>2.52</v>
       </c>
       <c r="M55" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N55"/>
+        <v>45.98</v>
+      </c>
+      <c r="N55" s="6" t="n">
+        <v>0.054806437581557205</v>
+      </c>
       <c r="O55" s="5" t="n">
-        <v>0.0</v>
+        <v>18.246031746031743</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R55" s="6" t="n">
-        <v>0.0</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="S55" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T55" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U55" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V55" s="7" t="n">
-        <v>0.0</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>43282.0</v>
+        <v>43286.0</v>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
@@ -4244,26 +4208,26 @@
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>tby精准关键词</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>ks369370-transparent color</t>
+          <t>Decoration</t>
         </is>
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS377-ANCHOR-L</t>
+          <t>YY-IULCY-KS371-YL-L</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>B07CYZ9KY7</t>
+          <t>B07CYT3T23</t>
         </is>
       </c>
       <c r="H56" s="4" t="n">
-        <v>55.0</v>
+        <v>23.0</v>
       </c>
       <c r="I56" s="4" t="n">
         <v>0.0</v>
@@ -4302,10 +4266,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>43279.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
@@ -4314,26 +4278,26 @@
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>waterproof shoe covers</t>
+          <t>tby精准关键词</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>high tube</t>
+          <t>Decoration</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>YX-IUCY-819-N5-L</t>
+          <t>YY1100W0L</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>B07D75HFLV</t>
+          <t>B01AXMOYLU</t>
         </is>
       </c>
       <c r="H57" s="4" t="n">
-        <v>92.0</v>
+        <v>104.0</v>
       </c>
       <c r="I57" s="4" t="n">
         <v>0.0</v>
@@ -4372,10 +4336,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>43282.0</v>
+        <v>43284.0</v>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
@@ -4384,55 +4348,49 @@
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>waterproof shoe covers</t>
+          <t>雨衣测</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>high tube</t>
+          <t>ETYI</t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>YX-IUCY-819-WO-XL</t>
+          <t>ETYIYELLOW-L</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>B07D75MGJ7</t>
+          <t>B073QP8N2J</t>
         </is>
       </c>
       <c r="H58" s="4" t="n">
-        <v>247.0</v>
+        <v>22.0</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J58" s="6" t="n">
-        <v>0.008097165991902834</v>
-      </c>
-      <c r="K58" s="7" t="n">
-        <v>0.16</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K58"/>
       <c r="L58" s="7" t="n">
-        <v>0.32</v>
+        <v>0.0</v>
       </c>
       <c r="M58" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N58"/>
-      <c r="O58" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O58"/>
       <c r="P58" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q58" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R58" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R58"/>
       <c r="S58" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4448,10 +4406,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>43281.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
@@ -4460,68 +4418,76 @@
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>tby精准关键词</t>
+          <t>桌布-二</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>YY</t>
+          <t>MZYSZHUOBUDT</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>YY1100W0L</t>
+          <t>MZYSZHUOBUDTMAP60*60CM</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>B01AXMOYLU</t>
+          <t>B071V5YMVC</t>
         </is>
       </c>
       <c r="H59" s="4" t="n">
-        <v>11.0</v>
+        <v>1102.0</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="J59" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K59"/>
+        <v>0.016333938294010888</v>
+      </c>
+      <c r="K59" s="7" t="n">
+        <v>0.2683333333333333</v>
+      </c>
       <c r="L59" s="7" t="n">
-        <v>0.0</v>
+        <v>4.829999999999999</v>
       </c>
       <c r="M59" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N59"/>
-      <c r="O59"/>
+        <v>16.2</v>
+      </c>
+      <c r="N59" s="6" t="n">
+        <v>0.2981481481481481</v>
+      </c>
+      <c r="O59" s="5" t="n">
+        <v>3.354037267080746</v>
+      </c>
       <c r="P59" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R59"/>
+        <v>2.0</v>
+      </c>
+      <c r="R59" s="6" t="n">
+        <v>0.1111111111111111</v>
+      </c>
       <c r="S59" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T59" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U59" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V59" s="7" t="n">
-        <v>0.0</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
@@ -4530,49 +4496,55 @@
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>waterproof shoe covers</t>
+          <t>雨衣测</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>middle tube</t>
+          <t>ETYI</t>
         </is>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>YX-IUCY-518-BO-XL</t>
+          <t>YDYPFS-XL</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>B07D74TWXY</t>
+          <t>B074K8RKK4</t>
         </is>
       </c>
       <c r="H60" s="4" t="n">
-        <v>112.0</v>
+        <v>89.0</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J60" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K60"/>
+        <v>0.011235955056179777</v>
+      </c>
+      <c r="K60" s="7" t="n">
+        <v>0.1</v>
+      </c>
       <c r="L60" s="7" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="M60" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N60"/>
-      <c r="O60"/>
+      <c r="O60" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P60" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q60" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R60"/>
+      <c r="R60" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S60" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4588,10 +4560,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
@@ -4600,26 +4572,26 @@
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>waterproof shoe covers</t>
+          <t>chair cover</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>middle tube</t>
+          <t>SXHL</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>YX-IUCY-518-N5-XL</t>
+          <t>SXHLYITAO1-LH-001GO40x60CM</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>B07D74DCPD</t>
+          <t>B072L36CJW</t>
         </is>
       </c>
       <c r="H61" s="4" t="n">
-        <v>206.0</v>
+        <v>54.0</v>
       </c>
       <c r="I61" s="4" t="n">
         <v>0.0</v>
@@ -4658,10 +4630,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>43279.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
@@ -4670,49 +4642,55 @@
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>waterproof shoe covers</t>
+          <t>收纳袋</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>middle tube</t>
+          <t>收纳袋ZAKKA</t>
         </is>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>YX-IUCY-518-WO-L</t>
+          <t>SND-IUYL111-BE</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>B07D74JGP3</t>
+          <t>B07BGWRB7M</t>
         </is>
       </c>
       <c r="H62" s="4" t="n">
-        <v>53.0</v>
+        <v>162.0</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J62" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K62"/>
+        <v>0.012345679012345678</v>
+      </c>
+      <c r="K62" s="7" t="n">
+        <v>0.135</v>
+      </c>
       <c r="L62" s="7" t="n">
-        <v>0.0</v>
+        <v>0.27</v>
       </c>
       <c r="M62" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N62"/>
-      <c r="O62"/>
+      <c r="O62" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P62" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q62" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R62"/>
+      <c r="R62" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S62" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4728,10 +4706,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>43282.0</v>
+        <v>43284.0</v>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
@@ -4740,38 +4718,38 @@
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>tby精准关键词</t>
+          <t>桌布-二</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>Decoration</t>
+          <t>雏菊桌布</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>TBYPRBONE-M</t>
+          <t>YMQYQXDHW0140*140CM</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>B01N0OX2DR</t>
+          <t>B01C8QJ4SC</t>
         </is>
       </c>
       <c r="H63" s="4" t="n">
-        <v>1006.0</v>
+        <v>31.0</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="J63" s="6" t="n">
-        <v>0.006958250497017893</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="K63" s="7" t="n">
-        <v>0.2942857142857143</v>
+        <v>0.195</v>
       </c>
       <c r="L63" s="7" t="n">
-        <v>2.06</v>
+        <v>0.39</v>
       </c>
       <c r="M63" s="7" t="n">
         <v>0.0</v>
@@ -4804,10 +4782,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43276.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>43282.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
@@ -4816,55 +4794,49 @@
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>tby精准关键词</t>
+          <t>raincoat-adult</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>Decoration</t>
+          <t>rain poncho</t>
         </is>
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS371-YL-L</t>
+          <t>YY-IULCY-XZM100-BLNWT</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>B07CYT3T23</t>
+          <t>B07DV1KGJ4</t>
         </is>
       </c>
       <c r="H64" s="4" t="n">
-        <v>52.0</v>
+        <v>2.0</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J64" s="6" t="n">
-        <v>0.019230769230769232</v>
-      </c>
-      <c r="K64" s="7" t="n">
-        <v>0.3</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K64"/>
       <c r="L64" s="7" t="n">
-        <v>0.3</v>
+        <v>0.0</v>
       </c>
       <c r="M64" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N64"/>
-      <c r="O64" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O64"/>
       <c r="P64" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q64" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R64" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R64"/>
       <c r="S64" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4880,10 +4852,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
@@ -4892,49 +4864,55 @@
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>tby精准关键词</t>
+          <t>raincoat-adult</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>Decoration</t>
+          <t>rain poncho</t>
         </is>
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>YY1100W0L</t>
+          <t>YY-IULCY-XZM100-KKNWT</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>B01AXMOYLU</t>
+          <t>B07DV73JMF</t>
         </is>
       </c>
       <c r="H65" s="4" t="n">
-        <v>81.0</v>
+        <v>6.0</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J65" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K65"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="K65" s="7" t="n">
+        <v>0.12</v>
+      </c>
       <c r="L65" s="7" t="n">
-        <v>0.0</v>
+        <v>0.12</v>
       </c>
       <c r="M65" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N65"/>
-      <c r="O65"/>
+      <c r="O65" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P65" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q65" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R65"/>
+      <c r="R65" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S65" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4950,10 +4928,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43276.0</v>
+        <v>43288.0</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
@@ -4962,55 +4940,47 @@
       </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>raincoat-adult</t>
         </is>
       </c>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>ETYI</t>
+          <t>rain poncho</t>
         </is>
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>ETYIYELLOW-L</t>
+          <t>YY-IULCY-XZM100-RDNWT</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
         <is>
-          <t>B073QP8N2J</t>
+          <t>B07DTZB3NP</t>
         </is>
       </c>
       <c r="H66" s="4" t="n">
-        <v>51.0</v>
+        <v>0.0</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J66" s="6" t="n">
-        <v>0.0196078431372549</v>
-      </c>
-      <c r="K66" s="7" t="n">
-        <v>0.07</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66"/>
       <c r="L66" s="7" t="n">
-        <v>0.07</v>
+        <v>0.0</v>
       </c>
       <c r="M66" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N66"/>
-      <c r="O66" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O66"/>
       <c r="P66" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q66" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R66" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R66"/>
       <c r="S66" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5026,10 +4996,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>43282.0</v>
+        <v>43286.0</v>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
@@ -5038,76 +5008,68 @@
       </c>
       <c r="D67" s="1" t="inlineStr">
         <is>
-          <t>桌布-二</t>
+          <t>raincoat-adult</t>
         </is>
       </c>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>MZYSZHUOBUDT</t>
+          <t>rain poncho</t>
         </is>
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>MZYSZHUOBUDTMAP60*60CM</t>
+          <t>YY-IULCY-XZM100-BKNWT</t>
         </is>
       </c>
       <c r="G67" s="1" t="inlineStr">
         <is>
-          <t>B071V5YMVC</t>
+          <t>B07DV9BMHF</t>
         </is>
       </c>
       <c r="H67" s="4" t="n">
-        <v>1239.0</v>
+        <v>3.0</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="J67" s="6" t="n">
-        <v>0.024213075060532687</v>
-      </c>
-      <c r="K67" s="7" t="n">
-        <v>0.23433333333333334</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K67"/>
       <c r="L67" s="7" t="n">
-        <v>7.03</v>
+        <v>0.0</v>
       </c>
       <c r="M67" s="7" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="N67" s="6" t="n">
-        <v>0.5669354838709677</v>
-      </c>
-      <c r="O67" s="5" t="n">
-        <v>1.763869132290185</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N67"/>
+      <c r="O67"/>
       <c r="P67" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R67" s="6" t="n">
-        <v>0.03333333333333333</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R67"/>
       <c r="S67" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T67" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U67" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V67" s="7" t="n">
-        <v>12.4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
@@ -5116,49 +5078,55 @@
       </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>raincoat-adult</t>
         </is>
       </c>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>ETYI</t>
+          <t>rain poncho</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>YDYPFS-XL</t>
+          <t>YY-IULCY-XZM100-CFNWT</t>
         </is>
       </c>
       <c r="G68" s="1" t="inlineStr">
         <is>
-          <t>B074K8RKK4</t>
+          <t>B07DV5JV44</t>
         </is>
       </c>
       <c r="H68" s="4" t="n">
-        <v>93.0</v>
+        <v>55.0</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J68" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K68"/>
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="K68" s="7" t="n">
+        <v>0.09</v>
+      </c>
       <c r="L68" s="7" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="M68" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N68"/>
-      <c r="O68"/>
+      <c r="O68" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P68" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q68" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R68"/>
+      <c r="R68" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S68" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5174,10 +5142,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43276.0</v>
+        <v>43284.0</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
@@ -5186,55 +5154,49 @@
       </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>chair cover</t>
+          <t>raincoat-adult</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>SXHL</t>
+          <t>rain poncho</t>
         </is>
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>SXHLYITAO1-LH-001GO40x60CM</t>
+          <t>YY-IULCY-XZM100-GNNWT</t>
         </is>
       </c>
       <c r="G69" s="1" t="inlineStr">
         <is>
-          <t>B072L36CJW</t>
+          <t>B07DV3LV6M</t>
         </is>
       </c>
       <c r="H69" s="4" t="n">
-        <v>51.0</v>
+        <v>16.0</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J69" s="6" t="n">
-        <v>0.0196078431372549</v>
-      </c>
-      <c r="K69" s="7" t="n">
-        <v>0.12</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K69"/>
       <c r="L69" s="7" t="n">
-        <v>0.12</v>
+        <v>0.0</v>
       </c>
       <c r="M69" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N69"/>
-      <c r="O69" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O69"/>
       <c r="P69" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q69" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R69" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R69"/>
       <c r="S69" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5250,10 +5212,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
@@ -5262,74 +5224,76 @@
       </c>
       <c r="D70" s="1" t="inlineStr">
         <is>
-          <t>收纳袋</t>
+          <t>372</t>
         </is>
       </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>收纳袋ZAKKA</t>
+          <t>372</t>
         </is>
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>SND-IUYL111-BE</t>
+          <t>YY-IULCY-KS372-YL-XL</t>
         </is>
       </c>
       <c r="G70" s="1" t="inlineStr">
         <is>
-          <t>B07BGWRB7M</t>
+          <t>B07CYSSGYK</t>
         </is>
       </c>
       <c r="H70" s="4" t="n">
-        <v>257.0</v>
+        <v>3154.0</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="J70" s="6" t="n">
-        <v>0.007782101167315175</v>
+        <v>0.004121750158528852</v>
       </c>
       <c r="K70" s="7" t="n">
-        <v>0.06</v>
+        <v>0.49923076923076926</v>
       </c>
       <c r="L70" s="7" t="n">
-        <v>0.12</v>
+        <v>6.49</v>
       </c>
       <c r="M70" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N70"/>
+        <v>13.99</v>
+      </c>
+      <c r="N70" s="6" t="n">
+        <v>0.46390278770550386</v>
+      </c>
       <c r="O70" s="5" t="n">
-        <v>0.0</v>
+        <v>2.1556240369799693</v>
       </c>
       <c r="P70" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q70" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R70" s="6" t="n">
-        <v>0.0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S70" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T70" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U70" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V70" s="7" t="n">
-        <v>0.0</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>43278.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
@@ -5338,68 +5302,76 @@
       </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>宠物毛毯测</t>
+          <t>372</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240</t>
+          <t>372</t>
         </is>
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>TZ-IUYL240-DOT-M</t>
+          <t>YY-IULCY-KS372-GN-XL</t>
         </is>
       </c>
       <c r="G71" s="1" t="inlineStr">
         <is>
-          <t>B07C8D3877</t>
+          <t>B07CYNNW22</t>
         </is>
       </c>
       <c r="H71" s="4" t="n">
-        <v>25.0</v>
+        <v>10541.0</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="J71" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K71"/>
+        <v>0.0026562944692154443</v>
+      </c>
+      <c r="K71" s="7" t="n">
+        <v>0.47821428571428576</v>
+      </c>
       <c r="L71" s="7" t="n">
-        <v>0.0</v>
+        <v>13.39</v>
       </c>
       <c r="M71" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N71"/>
-      <c r="O71"/>
+        <v>13.99</v>
+      </c>
+      <c r="N71" s="6" t="n">
+        <v>0.9571122230164404</v>
+      </c>
+      <c r="O71" s="5" t="n">
+        <v>1.044809559372666</v>
+      </c>
       <c r="P71" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R71"/>
+        <v>1.0</v>
+      </c>
+      <c r="R71" s="6" t="n">
+        <v>0.03571428571428571</v>
+      </c>
       <c r="S71" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T71" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U71" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V71" s="7" t="n">
-        <v>0.0</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
@@ -5408,74 +5380,76 @@
       </c>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>桌布-二</t>
+          <t>371</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>雏菊桌布</t>
+          <t>371</t>
         </is>
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0140*140CM</t>
+          <t>YY-IULCY-KS370-RD-L</t>
         </is>
       </c>
       <c r="G72" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJ4SC</t>
+          <t>B07CYNGKTC</t>
         </is>
       </c>
       <c r="H72" s="4" t="n">
-        <v>375.0</v>
+        <v>15877.0</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>4.0</v>
+        <v>46.0</v>
       </c>
       <c r="J72" s="6" t="n">
-        <v>0.010666666666666666</v>
+        <v>0.0028972727845310827</v>
       </c>
       <c r="K72" s="7" t="n">
-        <v>0.17</v>
+        <v>0.5271739130434783</v>
       </c>
       <c r="L72" s="7" t="n">
-        <v>0.68</v>
+        <v>24.25</v>
       </c>
       <c r="M72" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N72"/>
+        <v>92.93999999999998</v>
+      </c>
+      <c r="N72" s="6" t="n">
+        <v>0.26092102431676356</v>
+      </c>
       <c r="O72" s="5" t="n">
-        <v>0.0</v>
+        <v>3.832577319587628</v>
       </c>
       <c r="P72" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q72" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="R72" s="6" t="n">
-        <v>0.0</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="S72" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T72" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="U72" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V72" s="7" t="n">
-        <v>0.0</v>
+        <v>92.93999999999998</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43278.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>43281.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
@@ -5484,66 +5458,76 @@
       </c>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t>raincoat-adult</t>
+          <t>371</t>
         </is>
       </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>rain poncho</t>
+          <t>371</t>
         </is>
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-XZM100-BLNWT</t>
+          <t>YY-IULCY-KS371-YL-XL</t>
         </is>
       </c>
       <c r="G73" s="1" t="inlineStr">
         <is>
-          <t>B07DV1KGJ4</t>
+          <t>B07CYN4GVK</t>
         </is>
       </c>
       <c r="H73" s="4" t="n">
-        <v>0.0</v>
+        <v>21512.0</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J73"/>
-      <c r="K73"/>
+        <v>94.0</v>
+      </c>
+      <c r="J73" s="6" t="n">
+        <v>0.004369654146522871</v>
+      </c>
+      <c r="K73" s="7" t="n">
+        <v>0.565531914893617</v>
+      </c>
       <c r="L73" s="7" t="n">
-        <v>0.0</v>
+        <v>53.16</v>
       </c>
       <c r="M73" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N73"/>
-      <c r="O73"/>
+        <v>291.80999999999995</v>
+      </c>
+      <c r="N73" s="6" t="n">
+        <v>0.1821733319625784</v>
+      </c>
+      <c r="O73" s="5" t="n">
+        <v>5.489277652370203</v>
+      </c>
       <c r="P73" s="4" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R73"/>
+        <v>19.0</v>
+      </c>
+      <c r="R73" s="6" t="n">
+        <v>0.18085106382978725</v>
+      </c>
       <c r="S73" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T73" s="4" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="U73" s="7" t="n">
-        <v>0.0</v>
+        <v>27.98</v>
       </c>
       <c r="V73" s="7" t="n">
-        <v>0.0</v>
+        <v>263.83000000000004</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43281.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
@@ -5552,68 +5536,76 @@
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>raincoat-adult</t>
+          <t>374</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>rain poncho</t>
+          <t>374</t>
         </is>
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-XZM100-KKNWT</t>
+          <t>YY-IULUY-KS374-YL-XL</t>
         </is>
       </c>
       <c r="G74" s="1" t="inlineStr">
         <is>
-          <t>B07DV73JMF</t>
+          <t>B07CYMV2ZC</t>
         </is>
       </c>
       <c r="H74" s="4" t="n">
-        <v>3.0</v>
+        <v>10498.0</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="J74" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K74"/>
+        <v>0.005620118117736711</v>
+      </c>
+      <c r="K74" s="7" t="n">
+        <v>0.4832203389830509</v>
+      </c>
       <c r="L74" s="7" t="n">
-        <v>0.0</v>
+        <v>28.51</v>
       </c>
       <c r="M74" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N74"/>
-      <c r="O74"/>
+        <v>78.94</v>
+      </c>
+      <c r="N74" s="6" t="n">
+        <v>0.3611603749683304</v>
+      </c>
+      <c r="O74" s="5" t="n">
+        <v>2.7688530340231496</v>
+      </c>
       <c r="P74" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q74" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R74"/>
+        <v>6.0</v>
+      </c>
+      <c r="R74" s="6" t="n">
+        <v>0.1016949152542373</v>
+      </c>
       <c r="S74" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T74" s="4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="U74" s="7" t="n">
-        <v>0.0</v>
+        <v>12.99</v>
       </c>
       <c r="V74" s="7" t="n">
-        <v>0.0</v>
+        <v>65.95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43280.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
@@ -5622,68 +5614,76 @@
       </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>raincoat-adult</t>
+          <t>374</t>
         </is>
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>rain poncho</t>
+          <t>374</t>
         </is>
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-XZM100-RDNWT</t>
+          <t>YY-IULCY-KS377-HEAD-M</t>
         </is>
       </c>
       <c r="G75" s="1" t="inlineStr">
         <is>
-          <t>B07DTZB3NP</t>
+          <t>B07CYVFKH9</t>
         </is>
       </c>
       <c r="H75" s="4" t="n">
-        <v>8.0</v>
+        <v>5691.0</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="J75" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K75"/>
+        <v>0.004744333157617291</v>
+      </c>
+      <c r="K75" s="7" t="n">
+        <v>0.5118518518518518</v>
+      </c>
       <c r="L75" s="7" t="n">
-        <v>0.0</v>
+        <v>13.819999999999999</v>
       </c>
       <c r="M75" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N75"/>
-      <c r="O75"/>
+        <v>41.97</v>
+      </c>
+      <c r="N75" s="6" t="n">
+        <v>0.3292828210626638</v>
+      </c>
+      <c r="O75" s="5" t="n">
+        <v>3.0369030390738065</v>
+      </c>
       <c r="P75" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R75"/>
+        <v>3.0</v>
+      </c>
+      <c r="R75" s="6" t="n">
+        <v>0.1111111111111111</v>
+      </c>
       <c r="S75" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T75" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U75" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V75" s="7" t="n">
-        <v>0.0</v>
+        <v>41.97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43280.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
@@ -5692,49 +5692,55 @@
       </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>raincoat-adult</t>
+          <t>户外</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>rain poncho</t>
+          <t>SGZ</t>
         </is>
       </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-XZM100-BKNWT</t>
+          <t>SGZ-LULHY-001</t>
         </is>
       </c>
       <c r="G76" s="1" t="inlineStr">
         <is>
-          <t>B07DV9BMHF</t>
+          <t>B07DQNVQYY</t>
         </is>
       </c>
       <c r="H76" s="4" t="n">
-        <v>3.0</v>
+        <v>77.0</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J76" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K76"/>
+        <v>0.025974025974025972</v>
+      </c>
+      <c r="K76" s="7" t="n">
+        <v>0.165</v>
+      </c>
       <c r="L76" s="7" t="n">
-        <v>0.0</v>
+        <v>0.33</v>
       </c>
       <c r="M76" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N76"/>
-      <c r="O76"/>
+      <c r="O76" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P76" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q76" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R76"/>
+      <c r="R76" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S76" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5750,10 +5756,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43280.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>43281.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
@@ -5762,59 +5768,283 @@
       </c>
       <c r="D77" s="1" t="inlineStr">
         <is>
-          <t>raincoat-adult</t>
+          <t>桌布-精准一</t>
         </is>
       </c>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>rain poncho</t>
+          <t>地图桌布</t>
         </is>
       </c>
       <c r="F77" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-XZM100-CFNWT</t>
+          <t>MZYSZHUOBUDTMAP140*140CM</t>
         </is>
       </c>
       <c r="G77" s="1" t="inlineStr">
         <is>
-          <t>B07DV5JV44</t>
+          <t>B06XXGBRDS</t>
         </is>
       </c>
       <c r="H77" s="4" t="n">
-        <v>1.0</v>
+        <v>4947.0</v>
       </c>
       <c r="I77" s="4" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="J77" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K77"/>
+        <v>0.00586213866990095</v>
+      </c>
+      <c r="K77" s="7" t="n">
+        <v>0.30689655172413793</v>
+      </c>
       <c r="L77" s="7" t="n">
-        <v>0.0</v>
+        <v>8.9</v>
       </c>
       <c r="M77" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N77"/>
-      <c r="O77"/>
+        <v>66.5</v>
+      </c>
+      <c r="N77" s="6" t="n">
+        <v>0.13383458646616542</v>
+      </c>
+      <c r="O77" s="5" t="n">
+        <v>7.47191011235955</v>
+      </c>
       <c r="P77" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q77" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R77"/>
+        <v>4.0</v>
+      </c>
+      <c r="R77" s="6" t="n">
+        <v>0.10344827586206896</v>
+      </c>
       <c r="S77" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T77" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="U77" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V77" s="7" t="n">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>43285.0</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>桌布-精准一</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>雏菊桌布</t>
+        </is>
+      </c>
+      <c r="F78" s="1" t="inlineStr">
+        <is>
+          <t>YMQYQXDHW0140*250CM</t>
+        </is>
+      </c>
+      <c r="G78" s="1" t="inlineStr">
+        <is>
+          <t>B01C8QJADG</t>
+        </is>
+      </c>
+      <c r="H78" s="4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="I78" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K78"/>
+      <c r="L78" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M78" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q78" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R78"/>
+      <c r="S78" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T78" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U78" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V78" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>43285.0</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>精准收纳袋</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>8 pockets</t>
+        </is>
+      </c>
+      <c r="F79" s="1" t="inlineStr">
+        <is>
+          <t>ZAKKA0633R035*50CM</t>
+        </is>
+      </c>
+      <c r="G79" s="1" t="inlineStr">
+        <is>
+          <t>B01H1X9GOY</t>
+        </is>
+      </c>
+      <c r="H79" s="4" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="I79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M79" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R79"/>
+      <c r="S79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U79" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V79" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>43285.0</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>桌布-二</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>MZYSZHUOBUDT</t>
+        </is>
+      </c>
+      <c r="F80" s="1" t="inlineStr">
+        <is>
+          <t>MZYSZHUOBUDTLEIS140*220CM</t>
+        </is>
+      </c>
+      <c r="G80" s="1" t="inlineStr">
+        <is>
+          <t>B074PL8264</t>
+        </is>
+      </c>
+      <c r="H80" s="4" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="I80" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J80" s="6" t="n">
+        <v>0.018018018018018018</v>
+      </c>
+      <c r="K80" s="7" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="L80" s="7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M80" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R80" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U80" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V80" s="7" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/SiYang/ad/download_data/商品推广广告商品报告.xlsx
+++ b/SiYang/ad/download_data/商品推广广告商品报告.xlsx
@@ -84,14 +84,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="true"/>
-    <col min="2" max="2" width="12.140625" customWidth="true"/>
+    <col min="1" max="1" width="13.26953125" customWidth="true"/>
+    <col min="2" max="2" width="13.26953125" customWidth="true"/>
     <col min="3" max="3" width="4.51171875" customWidth="true"/>
     <col min="4" max="4" width="21.84375" customWidth="true"/>
-    <col min="5" max="5" width="26.22265625" customWidth="true"/>
-    <col min="6" max="6" width="32.78125" customWidth="true"/>
-    <col min="7" max="7" width="13.3046875" customWidth="true"/>
-    <col min="8" max="8" width="7.72265625" customWidth="true"/>
+    <col min="5" max="5" width="19.19140625" customWidth="true"/>
+    <col min="6" max="6" width="32.5390625" customWidth="true"/>
+    <col min="7" max="7" width="13.55859375" customWidth="true"/>
+    <col min="8" max="8" width="7.80859375" customWidth="true"/>
     <col min="9" max="9" width="4.9375" customWidth="true"/>
     <col min="10" max="10" width="9.71875" customWidth="true"/>
     <col min="11" max="11" width="13.8046875" customWidth="true"/>
@@ -101,7 +101,7 @@
     <col min="15" max="15" width="13.41796875" customWidth="true"/>
     <col min="16" max="16" width="11.23046875" customWidth="true"/>
     <col min="17" max="17" width="11.23046875" customWidth="true"/>
-    <col min="18" max="18" width="9.6171875" customWidth="true"/>
+    <col min="18" max="18" width="10.8125" customWidth="true"/>
     <col min="19" max="19" width="17.43359375" customWidth="true"/>
     <col min="20" max="20" width="17.43359375" customWidth="true"/>
     <col min="21" max="21" width="17.65234375" customWidth="true"/>
@@ -222,10 +222,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43283.0</v>
+        <v>43333.0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
@@ -244,16 +244,16 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>ZAKKA0589R035*50CM</t>
+          <t>ZAKKA0466LTW25*65CM</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>B01H1X9LNA</t>
+          <t>B01H1X9NS8</t>
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>35.0</v>
+        <v>111.0</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0.0</v>
@@ -292,10 +292,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
@@ -323,57 +323,57 @@
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1972.0</v>
+        <v>5460.0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.0</v>
+        <v>40.0</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.012170385395537523</v>
+        <v>0.007326007326007325</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>0.1695833333333333</v>
+        <v>0.153</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>4.069999999999999</v>
+        <v>6.12</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>43.6</v>
+        <v>50.86</v>
       </c>
       <c r="N3" s="6" t="n">
-        <v>0.093348623853211</v>
+        <v>0.12033031852143139</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>10.712530712530715</v>
+        <v>8.310457516339868</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="R3" s="6" t="n">
-        <v>0.16666666666666663</v>
+        <v>0.125</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U3" s="7" t="n">
         <v>10.9</v>
       </c>
       <c r="V3" s="7" t="n">
-        <v>32.7</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
@@ -401,57 +401,57 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>9102.0</v>
+        <v>6587.0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>74.0</v>
+        <v>68.0</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.008130081300813009</v>
+        <v>0.010323364202216488</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>0.12432432432432432</v>
+        <v>0.12264705882352941</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>9.2</v>
+        <v>8.34</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>28.79</v>
+        <v>19.98</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3195554011809656</v>
+        <v>0.4174174174174174</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>3.1293478260869567</v>
+        <v>2.3956834532374103</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.04054054054054054</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>2.0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>19.8</v>
+        <v>19.98</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>8.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
@@ -479,49 +479,57 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>113.0</v>
+        <v>372.0</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5"/>
+        <v>0.008064516129032258</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>0.1466666666666667</v>
+      </c>
       <c r="L5" s="7" t="n">
-        <v>0.0</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N5"/>
-      <c r="O5"/>
+        <v>88.25</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.004985835694050992</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>200.56818181818178</v>
+      </c>
       <c r="P5" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R5"/>
+        <v>7.0</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>2.0</v>
+      </c>
       <c r="S5" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="U5" s="7" t="n">
-        <v>0.0</v>
+        <v>12.9</v>
       </c>
       <c r="V5" s="7" t="n">
-        <v>0.0</v>
+        <v>75.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43284.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
@@ -530,68 +538,76 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>收纳袋</t>
+          <t>精准收纳袋</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>收纳袋ZAKKA</t>
+          <t>广告组 1</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>ZAKKA0633R035*50CM</t>
+          <t>ZAKKA0631B030*65CM</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>B01H1X9GOY</t>
+          <t>B01H1X9QL2</t>
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>64.0</v>
+        <v>8470.0</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K6"/>
+        <v>0.009208972845336482</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>0.4461538461538461</v>
+      </c>
       <c r="L6" s="7" t="n">
-        <v>0.0</v>
+        <v>34.8</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N6"/>
-      <c r="O6"/>
+        <v>40.87</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.8514803034010276</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>1.174425287356322</v>
+      </c>
       <c r="P6" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R6"/>
+        <v>4.0</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>0.05128205128205128</v>
+      </c>
       <c r="S6" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U6" s="7" t="n">
-        <v>0.0</v>
+        <v>9.99</v>
       </c>
       <c r="V6" s="7" t="n">
-        <v>0.0</v>
+        <v>30.880000000000003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43283.0</v>
+        <v>43334.0</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43283.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -610,64 +626,66 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>ZAKKA0630R028*55CM</t>
+          <t>ZAKKA0631R030*65CM</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>B01H1X9IS8</t>
+          <t>B01H1X9QAI</t>
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>843.0</v>
+        <v>1256.0</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>7.0</v>
+        <v>25.0</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.00830367734282325</v>
+        <v>0.019904458598726114</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>0.2785714285714286</v>
+        <v>0.26080000000000003</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>1.9500000000000002</v>
+        <v>6.5200000000000005</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N7"/>
+        <v>19.98</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.32632632632632635</v>
+      </c>
       <c r="O7" s="5" t="n">
-        <v>0.0</v>
+        <v>3.0644171779141103</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0.0</v>
+        <v>0.08</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.0</v>
+        <v>9.99</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.0</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43283.0</v>
+        <v>43334.0</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43289.0</v>
+        <v>43334.0</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
@@ -686,66 +704,56 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>ZAKKA0631B030*65CM</t>
+          <t>ZAKKA0633B035*50CM</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>B01H1X9QL2</t>
+          <t>B01H1X9H2K</t>
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>2564.0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>0.015990639625585022</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>0.21195121951219514</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
       <c r="L8" s="7" t="n">
-        <v>8.690000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>40.78</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>0.21309465424227564</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>4.692750287686996</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8"/>
       <c r="P8" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R8" s="6" t="n">
-        <v>0.0975609756097561</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R8"/>
       <c r="S8" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" s="7" t="n">
-        <v>9.9</v>
+        <v>0.0</v>
       </c>
       <c r="V8" s="7" t="n">
-        <v>30.880000000000003</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
@@ -754,7 +762,7 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>精准收纳袋</t>
+          <t>tby精准关键词</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
@@ -764,66 +772,66 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>ZAKKA0631R030*65CM</t>
+          <t>TBYPRBONE-M</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>B01H1X9QAI</t>
+          <t>B01N0OX2DR</t>
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>467.0</v>
+        <v>329365.0</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>7.0</v>
+        <v>833.0</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.014989293361884369</v>
+        <v>0.0025291090431588054</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>0.18714285714285714</v>
+        <v>0.5046458583433373</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>1.31</v>
+        <v>420.36999999999995</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>9.9</v>
+        <v>3409.2499999999973</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.13232323232323231</v>
+        <v>0.12330277920363725</v>
       </c>
       <c r="O9" s="5" t="n">
-        <v>7.557251908396947</v>
+        <v>8.110117277636363</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>1.0</v>
+        <v>144.0</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>1.0</v>
+        <v>148.0</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>0.14285714285714285</v>
+        <v>0.17286914765906364</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>1.0</v>
+        <v>106.0</v>
       </c>
       <c r="U9" s="7" t="n">
-        <v>0.0</v>
+        <v>965.5800000000003</v>
       </c>
       <c r="V9" s="7" t="n">
-        <v>9.9</v>
+        <v>2443.6699999999996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
@@ -842,64 +850,66 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>TBYPRBFOUR-M</t>
+          <t>YY1100PR</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>B01NBIQ076</t>
+          <t>B07148FBL8</t>
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>1694.0</v>
+        <v>90214.0</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>4.0</v>
+        <v>148.0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.0023612750885478157</v>
+        <v>0.0016405435963375973</v>
       </c>
       <c r="K10" s="7" t="n">
-        <v>0.3575</v>
+        <v>0.48527027027027014</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>1.43</v>
+        <v>71.81999999999998</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N10"/>
+        <v>299.42</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.2398637365573441</v>
+      </c>
       <c r="O10" s="5" t="n">
-        <v>0.0</v>
+        <v>4.169033695349486</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0.0</v>
+        <v>0.08783783783783784</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="U10" s="7" t="n">
-        <v>0.0</v>
+        <v>68.69999999999999</v>
       </c>
       <c r="V10" s="7" t="n">
-        <v>0.0</v>
+        <v>230.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
@@ -918,66 +928,66 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>TBYPRBONE-M</t>
+          <t>TBYPJBLACK</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>B01N0OX2DR</t>
+          <t>B075WTPCQ5</t>
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>183764.0</v>
+        <v>57259.0</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>435.0</v>
+        <v>154.0</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.002367166583226312</v>
+        <v>0.0026895335231142702</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>0.5501379310344826</v>
+        <v>0.5823376623376623</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>239.30999999999992</v>
+        <v>89.67999999999999</v>
       </c>
       <c r="M11" s="7" t="n">
-        <v>1367.2200000000003</v>
+        <v>584.75</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1750340106200903</v>
+        <v>0.15336468576314663</v>
       </c>
       <c r="O11" s="5" t="n">
-        <v>5.713175379215246</v>
+        <v>6.520405887600357</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>60.0</v>
+        <v>26.0</v>
       </c>
       <c r="R11" s="6" t="n">
-        <v>0.135632183908046</v>
+        <v>0.16233766233766234</v>
       </c>
       <c r="S11" s="4" t="n">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="T11" s="4" t="n">
-        <v>37.0</v>
+        <v>17.0</v>
       </c>
       <c r="U11" s="7" t="n">
-        <v>528.7700000000001</v>
+        <v>206.91</v>
       </c>
       <c r="V11" s="7" t="n">
-        <v>838.4500000000002</v>
+        <v>377.84000000000003</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43283.0</v>
+        <v>43335.0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
@@ -996,66 +1006,66 @@
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>YY1100G0M</t>
+          <t>TBYGREEN</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>B01AXMP04U</t>
+          <t>B075XFFYG6</t>
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>43516.0</v>
+        <v>619.0</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>63.0</v>
+        <v>7.0</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.001447743358764592</v>
+        <v>0.011308562197092082</v>
       </c>
       <c r="K12" s="7" t="n">
-        <v>0.44666666666666655</v>
+        <v>0.3357142857142857</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>28.139999999999993</v>
+        <v>2.3499999999999996</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>247.44000000000003</v>
+        <v>23.99</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.11372453928225021</v>
+        <v>0.09795748228428511</v>
       </c>
       <c r="O12" s="5" t="n">
-        <v>8.793176972281453</v>
+        <v>10.208510638297874</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="R12" s="6" t="n">
-        <v>0.1746031746031746</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T12" s="4" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="U12" s="7" t="n">
-        <v>43.8</v>
+        <v>0.0</v>
       </c>
       <c r="V12" s="7" t="n">
-        <v>203.64000000000001</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
@@ -1064,76 +1074,74 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>tby精准关键词</t>
+          <t>桌布-二</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>广告组 1</t>
+          <t>MZYSZHUOBUDT</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>YY1100PR</t>
+          <t>MZYSZHUOBUDTLEIS60*60CM</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>B07148FBL8</t>
+          <t>B074PLDC18</t>
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>20234.0</v>
+        <v>3234.0</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>59.0</v>
+        <v>8.0</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.0029158841553820303</v>
+        <v>0.0024737167594310453</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>0.5052542372881357</v>
+        <v>0.2325</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>29.810000000000006</v>
+        <v>1.86</v>
       </c>
       <c r="M13" s="7" t="n">
-        <v>294.51</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>0.10121897388883232</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N13"/>
       <c r="O13" s="5" t="n">
-        <v>9.879570613887955</v>
+        <v>0.0</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="R13" s="6" t="n">
-        <v>0.1864406779661017</v>
+        <v>0.0</v>
       </c>
       <c r="S13" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T13" s="4" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="U13" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V13" s="7" t="n">
-        <v>294.51</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
@@ -1142,76 +1150,74 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>tby精准关键词</t>
+          <t>桌布-二</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>广告组 1</t>
+          <t>MZYSZHUOBUDT</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>TBYSTARRED</t>
+          <t>MZYSZHUOBUDTMAP140*140CM</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>B075ZSTCLF</t>
+          <t>B06XXGBRDS</t>
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>12074.0</v>
+        <v>1276.0</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>32.0</v>
+        <v>10.0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.002650323008116614</v>
+        <v>0.007836990595611285</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>0.5215624999999999</v>
+        <v>0.307</v>
       </c>
       <c r="L14" s="7" t="n">
-        <v>16.689999999999998</v>
+        <v>3.07</v>
       </c>
       <c r="M14" s="7" t="n">
-        <v>42.98</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>0.3883201489064681</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N14"/>
       <c r="O14" s="5" t="n">
-        <v>2.5751947273816658</v>
+        <v>0.0</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R14" s="6" t="n">
-        <v>0.0625</v>
+        <v>0.0</v>
       </c>
       <c r="S14" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T14" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U14" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V14" s="7" t="n">
-        <v>42.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
@@ -1220,76 +1226,76 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>tby精准关键词</t>
+          <t>桌布-二</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>广告组 1</t>
+          <t>雏菊桌布</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>TBYPJBLACK</t>
+          <t>YMQYQXDHW0100*140CM</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>B075WTPCQ5</t>
+          <t>B01C8QJ32O</t>
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>9979.0</v>
+        <v>693.0</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>54.0</v>
+        <v>8.0</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.005411363864114641</v>
+        <v>0.011544011544011544</v>
       </c>
       <c r="K15" s="7" t="n">
-        <v>0.5664814814814814</v>
+        <v>0.22874999999999998</v>
       </c>
       <c r="L15" s="7" t="n">
-        <v>30.589999999999996</v>
+        <v>1.8299999999999998</v>
       </c>
       <c r="M15" s="7" t="n">
-        <v>206.91000000000003</v>
+        <v>19.99</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.14784205693296598</v>
+        <v>0.09154577288644322</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>6.763975155279505</v>
+        <v>10.923497267759563</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="R15" s="6" t="n">
-        <v>0.14814814814814814</v>
+        <v>0.125</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="T15" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="U15" s="7" t="n">
-        <v>183.92000000000002</v>
+        <v>0.0</v>
       </c>
       <c r="V15" s="7" t="n">
-        <v>22.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
@@ -1303,71 +1309,69 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>MZYSZHUOBUDT</t>
+          <t>雏菊桌布</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>MZYSZHUOBUDTLEIS60*60CM</t>
+          <t>YMQYQXDHW0140*180CM</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>B074PLDC18</t>
+          <t>B01C8QJ734</t>
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>3944.0</v>
+        <v>216.0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>36.0</v>
+        <v>5.0</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.009127789046653144</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="K16" s="7" t="n">
-        <v>0.185</v>
+        <v>0.22399999999999998</v>
       </c>
       <c r="L16" s="7" t="n">
-        <v>6.66</v>
+        <v>1.1199999999999999</v>
       </c>
       <c r="M16" s="7" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>0.4188679245283019</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N16"/>
       <c r="O16" s="5" t="n">
-        <v>2.3873873873873874</v>
+        <v>0.0</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R16" s="6" t="n">
-        <v>0.027777777777777776</v>
+        <v>0.0</v>
       </c>
       <c r="S16" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T16" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U16" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V16" s="7" t="n">
-        <v>15.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
@@ -1381,71 +1385,69 @@
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>MZYSZHUOBUDT</t>
+          <t>雏菊桌布</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>MZYSZHUOBUDTMAP140*140CM</t>
+          <t>YMQYQXDHW0140*200CM</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>B06XXGBRDS</t>
+          <t>B01C8QJ89C</t>
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>12511.0</v>
+        <v>231.0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>47.0</v>
+        <v>4.0</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.003756694109183918</v>
+        <v>0.017316017316017316</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>0.25659574468085106</v>
+        <v>0.07</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>12.06</v>
+        <v>0.28</v>
       </c>
       <c r="M17" s="7" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>0.2392857142857143</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N17"/>
       <c r="O17" s="5" t="n">
-        <v>4.17910447761194</v>
+        <v>0.0</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="R17" s="6" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.0</v>
       </c>
       <c r="S17" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T17" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U17" s="7" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="V17" s="7" t="n">
-        <v>31.4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
@@ -1464,28 +1466,28 @@
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0100*140CM</t>
+          <t>YMQYQXDHW0140*220CM</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJ32O</t>
+          <t>B01C8QJ9AU</t>
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>1119.0</v>
+        <v>801.0</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.010723860589812333</v>
+        <v>0.008739076154806492</v>
       </c>
       <c r="K18" s="7" t="n">
-        <v>0.11750000000000001</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>1.4100000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="M18" s="7" t="n">
         <v>0.0</v>
@@ -1518,10 +1520,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
@@ -1540,58 +1542,66 @@
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0140*180CM</t>
+          <t>YMQYQXDHW0140*250CM</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJ734</t>
+          <t>B01C8QJADG</t>
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>109.0</v>
+        <v>243.0</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K19"/>
+        <v>0.012345679012345678</v>
+      </c>
+      <c r="K19" s="7" t="n">
+        <v>0.21</v>
+      </c>
       <c r="L19" s="7" t="n">
-        <v>0.0</v>
+        <v>0.63</v>
       </c>
       <c r="M19" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N19"/>
-      <c r="O19"/>
+        <v>39.99</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>0.015753938484621154</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>63.47619047619048</v>
+      </c>
       <c r="P19" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R19"/>
+        <v>1.0</v>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>0.33333333333333326</v>
+      </c>
       <c r="S19" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T19" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U19" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V19" s="7" t="n">
-        <v>0.0</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
@@ -1605,50 +1615,44 @@
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>雏菊桌布</t>
+          <t>字母桌布</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0140*200CM</t>
+          <t>YMQYQDZMZM140*140CM</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJ89C</t>
+          <t>B01C8QGX6I</t>
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>105.0</v>
+        <v>99.0</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.009523809523809525</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>0.17</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K20"/>
       <c r="L20" s="7" t="n">
-        <v>0.17</v>
+        <v>0.0</v>
       </c>
       <c r="M20" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N20"/>
-      <c r="O20" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O20"/>
       <c r="P20" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R20" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R20"/>
       <c r="S20" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1664,10 +1668,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
@@ -1681,33 +1685,33 @@
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>雏菊桌布</t>
+          <t>字母桌布</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0140*220CM</t>
+          <t>YMQYQJISZMSS100*140CM</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJ9AU</t>
+          <t>B01C8QK07Q</t>
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>847.0</v>
+        <v>106.0</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.009445100354191263</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="K21" s="7" t="n">
-        <v>0.16125</v>
+        <v>0.03</v>
       </c>
       <c r="L21" s="7" t="n">
-        <v>1.29</v>
+        <v>0.03</v>
       </c>
       <c r="M21" s="7" t="n">
         <v>0.0</v>
@@ -1740,10 +1744,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43283.0</v>
+        <v>43334.0</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
@@ -1752,74 +1756,76 @@
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>桌布-二</t>
+          <t>桌布-精准一</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>雏菊桌布</t>
+          <t>地图桌布</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0140*250CM</t>
+          <t>MZYSZHUOBUDTLEIS100*140CM</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJADG</t>
+          <t>B074PL73NX</t>
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>135.0</v>
+        <v>464.0</v>
       </c>
       <c r="I22" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.00646551724137931</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M22" s="7" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>0.03211009174311926</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>31.142857142857146</v>
+      </c>
+      <c r="P22" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q22" s="4" t="n">
         <v>2.0</v>
       </c>
-      <c r="J22" s="6" t="n">
-        <v>0.014814814814814815</v>
-      </c>
-      <c r="K22" s="7" t="n">
-        <v>0.14500000000000002</v>
-      </c>
-      <c r="L22" s="7" t="n">
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="M22" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N22"/>
-      <c r="O22" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P22" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q22" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="R22" s="6" t="n">
-        <v>0.0</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="S22" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T22" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U22" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V22" s="7" t="n">
-        <v>0.0</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43285.0</v>
+        <v>43336.0</v>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
@@ -1828,7 +1834,7 @@
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>桌布-二</t>
+          <t>桌布-精准一</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
@@ -1838,64 +1844,66 @@
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW060*60CM</t>
+          <t>YMQYQXDHW0140*180CM</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>B072XFTL1N</t>
+          <t>B01C8QJ734</t>
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>174.0</v>
+        <v>2331.0</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.017241379310344827</v>
+        <v>0.009867009867009866</v>
       </c>
       <c r="K23" s="7" t="n">
-        <v>0.14</v>
+        <v>0.4930434782608696</v>
       </c>
       <c r="L23" s="7" t="n">
-        <v>0.42000000000000004</v>
+        <v>11.34</v>
       </c>
       <c r="M23" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N23"/>
+        <v>39.98</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>0.28364182091045526</v>
+      </c>
       <c r="O23" s="5" t="n">
-        <v>0.0</v>
+        <v>3.5255731922398588</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R23" s="6" t="n">
-        <v>0.0</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S23" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T23" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U23" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V23" s="7" t="n">
-        <v>0.0</v>
+        <v>39.98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43289.0</v>
+        <v>43334.0</v>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
@@ -1904,68 +1912,76 @@
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>桌布-二</t>
+          <t>桌布-精准一</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>字母桌布</t>
+          <t>雏菊桌布</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>YMQYQDZMZM140*140CM</t>
+          <t>YMQYQXDHW0140*200CM</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>B01C8QGX6I</t>
+          <t>B01C8QJ89C</t>
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>179.0</v>
+        <v>2223.0</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K24"/>
+        <v>0.007647323436797121</v>
+      </c>
+      <c r="K24" s="7" t="n">
+        <v>0.5011764705882352</v>
+      </c>
       <c r="L24" s="7" t="n">
-        <v>0.0</v>
+        <v>8.52</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N24"/>
-      <c r="O24"/>
+        <v>21.99</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>0.3874488403819918</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>2.5809859154929575</v>
+      </c>
       <c r="P24" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R24"/>
+        <v>1.0</v>
+      </c>
+      <c r="R24" s="6" t="n">
+        <v>0.0588235294117647</v>
+      </c>
       <c r="S24" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T24" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U24" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V24" s="7" t="n">
-        <v>0.0</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
@@ -1974,38 +1990,38 @@
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>桌布-二</t>
+          <t>chair cover</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>字母桌布</t>
+          <t>SXHL</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>YMQYQJISZMSS100*140CM</t>
+          <t>SXHLYITAO5-LH-001YHS40x60CM</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>B01C8QK07Q</t>
+          <t>B071YNH8GF</t>
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>148.0</v>
+        <v>167.0</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.013513513513513513</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="K25" s="7" t="n">
-        <v>0.06999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="L25" s="7" t="n">
-        <v>0.13999999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="M25" s="7" t="n">
         <v>0.0</v>
@@ -2038,10 +2054,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43283.0</v>
+        <v>43334.0</v>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
@@ -2050,68 +2066,76 @@
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>waterproof shoe covers</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>绿色雨衣YY</t>
+          <t>high tube</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>YY2127GR</t>
+          <t>YX-IUCY-819-N5-L</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>B01AXMOPYQ</t>
+          <t>B07D75HFLV</t>
         </is>
       </c>
       <c r="H26" s="4" t="n">
+        <v>1462.0</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J26" s="6" t="n">
+        <v>0.005471956224350205</v>
+      </c>
+      <c r="K26" s="7" t="n">
+        <v>0.13874999999999998</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="M26" s="7" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="N26" s="6" t="n">
+        <v>0.041111111111111105</v>
+      </c>
+      <c r="O26" s="5" t="n">
+        <v>24.324324324324326</v>
+      </c>
+      <c r="P26" s="4" t="n">
         <v>3.0</v>
       </c>
-      <c r="I26" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J26" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K26"/>
-      <c r="L26" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M26" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q26" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R26"/>
+        <v>3.0</v>
+      </c>
+      <c r="R26" s="6" t="n">
+        <v>0.375</v>
+      </c>
       <c r="S26" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T26" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U26" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V26" s="7" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43283.0</v>
+        <v>43338.0</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
@@ -2120,33 +2144,31 @@
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>测新儿童雨衣KS</t>
+          <t>tby精准关键词</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>KS377</t>
+          <t>occasion</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS377-BIRD-M</t>
+          <t>ETYIYUANDIAN-XL</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>B07CYV2X4S</t>
+          <t>B0771JJC17</t>
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="J27" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="J27"/>
       <c r="K27"/>
       <c r="L27" s="7" t="n">
         <v>0.0</v>
@@ -2178,10 +2200,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43283.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
@@ -2190,49 +2212,55 @@
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>测新儿童雨衣KS</t>
+          <t>waterproof shoe covers</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>KS377</t>
+          <t>middle tube</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS377-HEAD-M</t>
+          <t>YX-IUCY-518-BO-XL</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>B07CYVFKH9</t>
+          <t>B07D74TWXY</t>
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>4.0</v>
+        <v>141.0</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K28"/>
+        <v>0.0070921985815602835</v>
+      </c>
+      <c r="K28" s="7" t="n">
+        <v>0.05</v>
+      </c>
       <c r="L28" s="7" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="M28" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N28"/>
-      <c r="O28"/>
+      <c r="O28" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P28" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R28"/>
+      <c r="R28" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S28" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2248,10 +2276,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
@@ -2260,49 +2288,55 @@
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>测新儿童雨衣KS</t>
+          <t>waterproof shoe covers</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>KS377</t>
+          <t>middle tube</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS377-PLANT-M</t>
+          <t>YX-IUCY-518-WO-L</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>B07CYTRZVB</t>
+          <t>B07D74JGP3</t>
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K29"/>
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="K29" s="7" t="n">
+        <v>0.185</v>
+      </c>
       <c r="L29" s="7" t="n">
-        <v>0.0</v>
+        <v>0.37</v>
       </c>
       <c r="M29" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N29"/>
-      <c r="O29"/>
+      <c r="O29" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P29" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R29"/>
+      <c r="R29" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S29" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2318,10 +2352,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
@@ -2330,74 +2364,76 @@
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>测新儿童雨衣KS</t>
+          <t>tby精准关键词</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>ks374</t>
+          <t>Decoration</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>YY-IULUY-KS374-DB-L</t>
+          <t>TBYPRBONE-M</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>B07CYHC2KN</t>
+          <t>B01N0OX2DR</t>
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>70.0</v>
+        <v>4097.0</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>1.0</v>
+        <v>34.0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.014285714285714285</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="K30" s="7" t="n">
-        <v>0.15</v>
+        <v>0.23176470588235296</v>
       </c>
       <c r="L30" s="7" t="n">
-        <v>0.15</v>
+        <v>7.880000000000001</v>
       </c>
       <c r="M30" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N30"/>
+        <v>91.96</v>
+      </c>
+      <c r="N30" s="6" t="n">
+        <v>0.08568943018703785</v>
+      </c>
       <c r="O30" s="5" t="n">
-        <v>0.0</v>
+        <v>11.670050761421319</v>
       </c>
       <c r="P30" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="R30" s="6" t="n">
-        <v>0.0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="S30" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T30" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U30" s="7" t="n">
-        <v>0.0</v>
+        <v>45.98</v>
       </c>
       <c r="V30" s="7" t="n">
-        <v>0.0</v>
+        <v>45.98</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43283.0</v>
+        <v>43336.0</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
@@ -2406,38 +2442,38 @@
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>测新儿童雨衣KS</t>
+          <t>tby精准关键词</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>ks374</t>
+          <t>Decoration</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>YY-IULUY-KS374-YL-M</t>
+          <t>YY1100W0L</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>B07CYMDJZV</t>
+          <t>B01AXMOYLU</t>
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>177.0</v>
+        <v>87.0</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>0.022598870056497175</v>
+        <v>0.011494252873563218</v>
       </c>
       <c r="K31" s="7" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="L31" s="7" t="n">
-        <v>0.64</v>
+        <v>0.15</v>
       </c>
       <c r="M31" s="7" t="n">
         <v>0.0</v>
@@ -2470,10 +2506,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43283.0</v>
+        <v>43336.0</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43289.0</v>
+        <v>43336.0</v>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
@@ -2482,55 +2518,47 @@
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>桌布-精准一</t>
+          <t>桌布-二</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>雏菊桌布</t>
+          <t>MZYSZHUOBUDT</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0140*180CM</t>
+          <t>MZYSZHUOBUDTMAP60*60CM</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJ734</t>
+          <t>B071V5YMVC</t>
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>534.0</v>
+        <v>0.0</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J32" s="6" t="n">
-        <v>0.011235955056179777</v>
-      </c>
-      <c r="K32" s="7" t="n">
-        <v>0.14833333333333334</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
       <c r="L32" s="7" t="n">
-        <v>0.89</v>
+        <v>0.0</v>
       </c>
       <c r="M32" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N32"/>
-      <c r="O32" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O32"/>
       <c r="P32" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R32" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R32"/>
       <c r="S32" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2546,10 +2574,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43283.0</v>
+        <v>43333.0</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43289.0</v>
+        <v>43333.0</v>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
@@ -2558,65 +2586,55 @@
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>桌布-精准一</t>
+          <t>372</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>雏菊桌布</t>
+          <t>372</t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0140*200CM</t>
+          <t>YY-IULCY-KS372-YL-XL</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJ89C</t>
+          <t>B07CYSSGYK</t>
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>475.0</v>
+        <v>0.0</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J33" s="6" t="n">
-        <v>0.00631578947368421</v>
-      </c>
-      <c r="K33" s="7" t="n">
-        <v>0.25666666666666665</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
       <c r="L33" s="7" t="n">
-        <v>0.77</v>
+        <v>0.0</v>
       </c>
       <c r="M33" s="7" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="N33" s="6" t="n">
-        <v>0.02962677953058869</v>
-      </c>
-      <c r="O33" s="5" t="n">
-        <v>33.75324675324675</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N33"/>
+      <c r="O33"/>
       <c r="P33" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R33" s="6" t="n">
-        <v>0.33333333333333326</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R33"/>
       <c r="S33" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T33" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U33" s="7" t="n">
-        <v>25.99</v>
+        <v>0.0</v>
       </c>
       <c r="V33" s="7" t="n">
         <v>0.0</v>
@@ -2624,10 +2642,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
@@ -2636,74 +2654,76 @@
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>桌布-精准一</t>
+          <t>371</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>雏菊桌布</t>
+          <t>371</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0140*220CM</t>
+          <t>YY-IULCY-KS371-YL-XL</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJ9AU</t>
+          <t>B07CYN4GVK</t>
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>1187.0</v>
+        <v>68134.0</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>18.0</v>
+        <v>245.0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>0.015164279696714406</v>
+        <v>0.0035958552264654946</v>
       </c>
       <c r="K34" s="7" t="n">
-        <v>0.22388888888888892</v>
+        <v>0.2898775510204081</v>
       </c>
       <c r="L34" s="7" t="n">
-        <v>4.03</v>
+        <v>71.01999999999998</v>
       </c>
       <c r="M34" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N34"/>
+        <v>121.91999999999999</v>
+      </c>
+      <c r="N34" s="6" t="n">
+        <v>0.5825131233595799</v>
+      </c>
       <c r="O34" s="5" t="n">
-        <v>0.0</v>
+        <v>1.7166995212616167</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="R34" s="6" t="n">
-        <v>0.0</v>
+        <v>0.036734693877551024</v>
       </c>
       <c r="S34" s="4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="T34" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="U34" s="7" t="n">
-        <v>0.0</v>
+        <v>69.95</v>
       </c>
       <c r="V34" s="7" t="n">
-        <v>0.0</v>
+        <v>51.97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43289.0</v>
+        <v>43334.0</v>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
@@ -2712,68 +2732,76 @@
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>chair cover</t>
+          <t>桌布-精准一</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>SXHL</t>
+          <t>地图桌布</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>SXHLYITAO4-LH-001DHS40x60CM</t>
+          <t>MZYSZHUOBUDTMAP140*140CM</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>B071NGGPFS</t>
+          <t>B06XXGBRDS</t>
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>101.0</v>
+        <v>7952.0</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K35"/>
+        <v>0.005030181086519115</v>
+      </c>
+      <c r="K35" s="7" t="n">
+        <v>0.7965</v>
+      </c>
       <c r="L35" s="7" t="n">
-        <v>0.0</v>
+        <v>31.86</v>
       </c>
       <c r="M35" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N35"/>
-      <c r="O35"/>
+        <v>59.98</v>
+      </c>
+      <c r="N35" s="6" t="n">
+        <v>0.5311770590196733</v>
+      </c>
+      <c r="O35" s="5" t="n">
+        <v>1.8826114249843062</v>
+      </c>
       <c r="P35" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R35"/>
+        <v>2.0</v>
+      </c>
+      <c r="R35" s="6" t="n">
+        <v>0.05</v>
+      </c>
       <c r="S35" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T35" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U35" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V35" s="7" t="n">
-        <v>0.0</v>
+        <v>59.98</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43289.0</v>
+        <v>43334.0</v>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
@@ -2782,38 +2810,38 @@
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>chair cover</t>
+          <t>精准收纳袋</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>SXHL</t>
+          <t>8 pockets</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>SXHLYITAO5-LH-001YHS40x60CM</t>
+          <t>ZAKKA0633R035*50CM</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>B071YNH8GF</t>
+          <t>B01H1X9GOY</t>
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>109.0</v>
+        <v>375.0</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="J36" s="6" t="n">
-        <v>0.009174311926605505</v>
+        <v>0.010666666666666666</v>
       </c>
       <c r="K36" s="7" t="n">
-        <v>0.27</v>
+        <v>0.78</v>
       </c>
       <c r="L36" s="7" t="n">
-        <v>0.27</v>
+        <v>3.12</v>
       </c>
       <c r="M36" s="7" t="n">
         <v>0.0</v>
@@ -2846,10 +2874,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
@@ -2858,49 +2886,55 @@
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>chair cover</t>
+          <t>桌布-二</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>SXHL</t>
+          <t>MZYSZHUOBUDT</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>SXHLYITAO2-LH-001SKFS40x60CM</t>
+          <t>MZYSZHUOBUDTLEIS140*220CM</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>B072HHBCK2</t>
+          <t>B074PL8264</t>
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>110.0</v>
+        <v>137.0</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K37"/>
+        <v>0.0072992700729927005</v>
+      </c>
+      <c r="K37" s="7" t="n">
+        <v>0.52</v>
+      </c>
       <c r="L37" s="7" t="n">
-        <v>0.0</v>
+        <v>0.52</v>
       </c>
       <c r="M37" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N37"/>
-      <c r="O37"/>
+      <c r="O37" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P37" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R37"/>
+      <c r="R37" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S37" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2916,10 +2950,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43283.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
@@ -2928,68 +2962,76 @@
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>kids rain poncho</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>ks371-pockets</t>
+          <t>ETYI</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS371-BL-M</t>
+          <t>ETYIYELLOW-L</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>B07CYX5S6S</t>
+          <t>B073QP8N2J</t>
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>11.0</v>
+        <v>17213.0</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K38"/>
+        <v>0.0030209725207691863</v>
+      </c>
+      <c r="K38" s="7" t="n">
+        <v>0.43980769230769223</v>
+      </c>
       <c r="L38" s="7" t="n">
-        <v>0.0</v>
+        <v>22.869999999999997</v>
       </c>
       <c r="M38" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N38"/>
-      <c r="O38"/>
+        <v>38.98</v>
+      </c>
+      <c r="N38" s="6" t="n">
+        <v>0.5867111339148281</v>
+      </c>
+      <c r="O38" s="5" t="n">
+        <v>1.7044162658504591</v>
+      </c>
       <c r="P38" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R38"/>
+        <v>2.0</v>
+      </c>
+      <c r="R38" s="6" t="n">
+        <v>0.038461538461538464</v>
+      </c>
       <c r="S38" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U38" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V38" s="7" t="n">
-        <v>0.0</v>
+        <v>38.98</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43283.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
@@ -2998,68 +3040,76 @@
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>kids rain poncho</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>ks371-pockets</t>
+          <t>ETYI</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS371-GN-M</t>
+          <t>YDYPFS-S</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>B07CYQ24CG</t>
+          <t>B074KDD9P4</t>
         </is>
       </c>
       <c r="H39" s="4" t="n">
-        <v>5.0</v>
+        <v>45477.0</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>0.0</v>
+        <v>113.0</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K39"/>
+        <v>0.002484772522373947</v>
+      </c>
+      <c r="K39" s="7" t="n">
+        <v>0.5060176991150444</v>
+      </c>
       <c r="L39" s="7" t="n">
-        <v>0.0</v>
+        <v>57.18000000000001</v>
       </c>
       <c r="M39" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N39"/>
-      <c r="O39"/>
+        <v>212.88</v>
+      </c>
+      <c r="N39" s="6" t="n">
+        <v>0.26860202931228866</v>
+      </c>
+      <c r="O39" s="5" t="n">
+        <v>3.722980062959076</v>
+      </c>
       <c r="P39" s="4" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R39"/>
+        <v>12.0</v>
+      </c>
+      <c r="R39" s="6" t="n">
+        <v>0.10619469026548672</v>
+      </c>
       <c r="S39" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="U39" s="7" t="n">
-        <v>0.0</v>
+        <v>31.98</v>
       </c>
       <c r="V39" s="7" t="n">
-        <v>0.0</v>
+        <v>180.89999999999998</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43283.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
@@ -3068,68 +3118,76 @@
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>户外</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>ks371-pockets</t>
+          <t>SGZ</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS371-PP-M</t>
+          <t>ZCGTZ-IUCY001-AE</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>B07CYTN2MZ</t>
+          <t>B07DFFK33K</t>
         </is>
       </c>
       <c r="H40" s="4" t="n">
-        <v>8.0</v>
+        <v>55579.0</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>0.0</v>
+        <v>254.0</v>
       </c>
       <c r="J40" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K40"/>
+        <v>0.0045700714298566</v>
+      </c>
+      <c r="K40" s="7" t="n">
+        <v>0.47275590551181096</v>
+      </c>
       <c r="L40" s="7" t="n">
-        <v>0.0</v>
+        <v>120.07999999999998</v>
       </c>
       <c r="M40" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N40"/>
-      <c r="O40"/>
+        <v>744.84</v>
+      </c>
+      <c r="N40" s="6" t="n">
+        <v>0.16121583158799202</v>
+      </c>
+      <c r="O40" s="5" t="n">
+        <v>6.202864756828782</v>
+      </c>
       <c r="P40" s="4" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R40"/>
+        <v>17.0</v>
+      </c>
+      <c r="R40" s="6" t="n">
+        <v>0.06299212598425197</v>
+      </c>
       <c r="S40" s="4" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U40" s="7" t="n">
-        <v>0.0</v>
+        <v>719.84</v>
       </c>
       <c r="V40" s="7" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43283.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
@@ -3138,26 +3196,26 @@
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>chair cover</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>ks371-pockets</t>
+          <t>SXHL</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS371-WT-XL</t>
+          <t>SXHLYITAO3-LH-001QLS40x60CM</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>B07CYDQFTF</t>
+          <t>B0722JM9C8</t>
         </is>
       </c>
       <c r="H41" s="4" t="n">
-        <v>10.0</v>
+        <v>95.0</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>0.0</v>
@@ -3196,10 +3254,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43283.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
@@ -3208,68 +3266,76 @@
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>ZB-IULCY-YMQY100</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>ks371-pockets</t>
+          <t>ZB-IULCY-YMQY100</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS371-YL-M</t>
+          <t>ZB-IULCY-YMQY100-CF140*180</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>B07CYN2LST</t>
+          <t>B07F6Y2H7G</t>
         </is>
       </c>
       <c r="H42" s="4" t="n">
-        <v>4.0</v>
+        <v>18730.0</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
       <c r="J42" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K42"/>
+        <v>0.005125467164975975</v>
+      </c>
+      <c r="K42" s="7" t="n">
+        <v>0.33802083333333327</v>
+      </c>
       <c r="L42" s="7" t="n">
-        <v>0.0</v>
+        <v>32.449999999999996</v>
       </c>
       <c r="M42" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N42"/>
-      <c r="O42"/>
+        <v>54.89</v>
+      </c>
+      <c r="N42" s="6" t="n">
+        <v>0.5911823647294588</v>
+      </c>
+      <c r="O42" s="5" t="n">
+        <v>1.6915254237288138</v>
+      </c>
       <c r="P42" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R42"/>
+        <v>2.0</v>
+      </c>
+      <c r="R42" s="6" t="n">
+        <v>0.02083333333333333</v>
+      </c>
       <c r="S42" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T42" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U42" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V42" s="7" t="n">
-        <v>0.0</v>
+        <v>54.89</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43287.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
@@ -3278,68 +3344,76 @@
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>桌布-精准一</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>ks372-bag cover</t>
+          <t>地图桌布</t>
         </is>
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS372-PK-XL</t>
+          <t>MZYSZHUOBUDTMAP100*140CM</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>B07CYLRT43</t>
+          <t>B06XXBVWRG</t>
         </is>
       </c>
       <c r="H43" s="4" t="n">
-        <v>7.0</v>
+        <v>2481.0</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="J43" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K43"/>
+        <v>0.007255139056831923</v>
+      </c>
+      <c r="K43" s="7" t="n">
+        <v>0.5616666666666668</v>
+      </c>
       <c r="L43" s="7" t="n">
-        <v>0.0</v>
+        <v>10.110000000000001</v>
       </c>
       <c r="M43" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N43"/>
-      <c r="O43"/>
+        <v>57.3</v>
+      </c>
+      <c r="N43" s="6" t="n">
+        <v>0.17643979057591624</v>
+      </c>
+      <c r="O43" s="5" t="n">
+        <v>5.6676557863501476</v>
+      </c>
       <c r="P43" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R43"/>
+        <v>3.0</v>
+      </c>
+      <c r="R43" s="6" t="n">
+        <v>0.16666666666666663</v>
+      </c>
       <c r="S43" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T43" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U43" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V43" s="7" t="n">
-        <v>0.0</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
@@ -3348,31 +3422,33 @@
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>测新儿童雨衣KS</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>ks372-bag cover</t>
+          <t>big eye&amp; star</t>
         </is>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS372-PP-M</t>
+          <t>YY-IULCY-HZYD100-BIGEYED-XL</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>B07CYQPSKD</t>
+          <t>B07DVNV5FW</t>
         </is>
       </c>
       <c r="H44" s="4" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="I44" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="J44"/>
+      <c r="J44" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K44"/>
       <c r="L44" s="7" t="n">
         <v>0.0</v>
@@ -3404,10 +3480,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43283.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
@@ -3416,68 +3492,76 @@
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>371adults</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>ks372-bag cover</t>
+          <t>371</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS372-WT-M</t>
+          <t>YY-IULCY-KS371-YL-XL</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>B07CYZFTT7</t>
+          <t>B07CYN4GVK</t>
         </is>
       </c>
       <c r="H45" s="4" t="n">
-        <v>4.0</v>
+        <v>2049.0</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K45"/>
+        <v>0.005368472425573451</v>
+      </c>
+      <c r="K45" s="7" t="n">
+        <v>0.24545454545454543</v>
+      </c>
       <c r="L45" s="7" t="n">
-        <v>0.0</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="M45" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N45"/>
-      <c r="O45"/>
+        <v>13.99</v>
+      </c>
+      <c r="N45" s="6" t="n">
+        <v>0.19299499642601856</v>
+      </c>
+      <c r="O45" s="5" t="n">
+        <v>5.181481481481482</v>
+      </c>
       <c r="P45" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R45"/>
+        <v>1.0</v>
+      </c>
+      <c r="R45" s="6" t="n">
+        <v>0.09090909090909091</v>
+      </c>
       <c r="S45" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T45" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U45" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V45" s="7" t="n">
-        <v>0.0</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43283.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
@@ -3486,49 +3570,55 @@
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>374kids</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>ks372-bag cover</t>
+          <t>374</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS372-YL-M</t>
+          <t>YY-IULUY-KS374-YL-XL</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>B07CYN7Z12</t>
+          <t>B07CYMV2ZC</t>
         </is>
       </c>
       <c r="H46" s="4" t="n">
-        <v>2.0</v>
+        <v>589.0</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="J46" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K46"/>
+        <v>0.010186757215619695</v>
+      </c>
+      <c r="K46" s="7" t="n">
+        <v>0.34833333333333333</v>
+      </c>
       <c r="L46" s="7" t="n">
-        <v>0.0</v>
+        <v>2.09</v>
       </c>
       <c r="M46" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N46"/>
-      <c r="O46"/>
+      <c r="O46" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P46" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R46"/>
+      <c r="R46" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S46" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3544,10 +3634,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43283.0</v>
+        <v>43336.0</v>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
@@ -3556,49 +3646,55 @@
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>374kids</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>ks369370-transparent color</t>
+          <t>374</t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS370-BL-M</t>
+          <t>YY-IULCY-KS377-BIRD-M</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>B07CYRF2RW</t>
+          <t>B07CYV2X4S</t>
         </is>
       </c>
       <c r="H47" s="4" t="n">
-        <v>8.0</v>
+        <v>244.0</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J47" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K47"/>
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="K47" s="7" t="n">
+        <v>0.36250000000000004</v>
+      </c>
       <c r="L47" s="7" t="n">
-        <v>0.0</v>
+        <v>1.4500000000000002</v>
       </c>
       <c r="M47" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N47"/>
-      <c r="O47"/>
+      <c r="O47" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P47" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R47"/>
+      <c r="R47" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S47" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3614,10 +3710,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43283.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
@@ -3626,57 +3722,65 @@
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>沙袋自动</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>ks369370-transparent color</t>
+          <t>沙袋</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS377-ANCHOR-L</t>
+          <t>ZPSD-LAHM-800-BK-S</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>B07CYZ9KY7</t>
+          <t>B07DWQTW7P</t>
         </is>
       </c>
       <c r="H48" s="4" t="n">
-        <v>8.0</v>
+        <v>2224.0</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="J48" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K48"/>
+        <v>0.0044964028776978415</v>
+      </c>
+      <c r="K48" s="7" t="n">
+        <v>0.344</v>
+      </c>
       <c r="L48" s="7" t="n">
-        <v>0.0</v>
+        <v>3.44</v>
       </c>
       <c r="M48" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N48"/>
-      <c r="O48"/>
+        <v>16.0</v>
+      </c>
+      <c r="N48" s="6" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="O48" s="5" t="n">
+        <v>4.651162790697675</v>
+      </c>
       <c r="P48" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R48"/>
+        <v>1.0</v>
+      </c>
+      <c r="R48" s="6" t="n">
+        <v>0.1</v>
+      </c>
       <c r="S48" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T48" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U48" s="7" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="V48" s="7" t="n">
         <v>0.0</v>
@@ -3684,10 +3788,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43287.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
@@ -3696,57 +3800,65 @@
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>waterproof shoe covers</t>
+          <t>沙袋手动</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>high tube</t>
+          <t>沙袋</t>
         </is>
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>YX-IUCY-819-N5-L</t>
+          <t>ZPSD-LAHM-800-BK-S</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>B07D75HFLV</t>
+          <t>B07DWQTW7P</t>
         </is>
       </c>
       <c r="H49" s="4" t="n">
-        <v>57.0</v>
+        <v>2721.0</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K49"/>
+        <v>0.005880191106210952</v>
+      </c>
+      <c r="K49" s="7" t="n">
+        <v>0.669375</v>
+      </c>
       <c r="L49" s="7" t="n">
-        <v>0.0</v>
+        <v>10.71</v>
       </c>
       <c r="M49" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N49"/>
-      <c r="O49"/>
+        <v>64.0</v>
+      </c>
+      <c r="N49" s="6" t="n">
+        <v>0.16734375</v>
+      </c>
+      <c r="O49" s="5" t="n">
+        <v>5.9757236227824455</v>
+      </c>
       <c r="P49" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R49"/>
+        <v>4.0</v>
+      </c>
+      <c r="R49" s="6" t="n">
+        <v>0.125</v>
+      </c>
       <c r="S49" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="T49" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U49" s="7" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="V49" s="7" t="n">
         <v>0.0</v>
@@ -3754,10 +3866,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
@@ -3766,49 +3878,55 @@
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>waterproof shoe covers</t>
+          <t>清ETYY</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>high tube</t>
+          <t>恐龙</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>YX-IUCY-819-WO-XL</t>
+          <t>ZXXBLV-S</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>B07D75MGJ7</t>
+          <t>B074W79F2H</t>
         </is>
       </c>
       <c r="H50" s="4" t="n">
-        <v>198.0</v>
+        <v>1987.0</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K50"/>
+        <v>0.0025163563160543532</v>
+      </c>
+      <c r="K50" s="7" t="n">
+        <v>0.174</v>
+      </c>
       <c r="L50" s="7" t="n">
-        <v>0.0</v>
+        <v>0.87</v>
       </c>
       <c r="M50" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N50"/>
-      <c r="O50"/>
+      <c r="O50" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P50" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q50" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R50"/>
+      <c r="R50" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S50" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3824,10 +3942,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
@@ -3836,49 +3954,55 @@
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>tby精准关键词</t>
+          <t>清ETYY</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>YY</t>
+          <t>恐龙</t>
         </is>
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>YY1100W0L</t>
+          <t>ZXXBHO-XL</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>B01AXMOYLU</t>
+          <t>B074W5TPJ2</t>
         </is>
       </c>
       <c r="H51" s="4" t="n">
-        <v>15.0</v>
+        <v>1305.0</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K51"/>
+        <v>0.0030651340996168588</v>
+      </c>
+      <c r="K51" s="7" t="n">
+        <v>0.1425</v>
+      </c>
       <c r="L51" s="7" t="n">
-        <v>0.0</v>
+        <v>0.57</v>
       </c>
       <c r="M51" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N51"/>
-      <c r="O51"/>
+      <c r="O51" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P51" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R51"/>
+      <c r="R51" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S51" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3894,10 +4018,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
@@ -3906,76 +4030,74 @@
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>waterproof shoe covers</t>
+          <t>清ETYY</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>middle tube</t>
+          <t>恐龙</t>
         </is>
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>YX-IUCY-518-BO-XL</t>
+          <t>ZXXBHO-M</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>B07D74TWXY</t>
+          <t>B074W525HZ</t>
         </is>
       </c>
       <c r="H52" s="4" t="n">
-        <v>56.0</v>
+        <v>4130.0</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="J52" s="6" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.0021791767554479417</v>
       </c>
       <c r="K52" s="7" t="n">
-        <v>0.16</v>
+        <v>0.2088888888888889</v>
       </c>
       <c r="L52" s="7" t="n">
-        <v>0.32</v>
+        <v>1.8800000000000001</v>
       </c>
       <c r="M52" s="7" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="N52" s="6" t="n">
-        <v>0.04</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N52"/>
       <c r="O52" s="5" t="n">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R52" s="6" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="S52" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T52" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U52" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V52" s="7" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
@@ -3984,38 +4106,38 @@
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>waterproof shoe covers</t>
+          <t>清ETYY</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>middle tube</t>
+          <t>充气雨衣</t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>YX-IUCY-518-N5-XL</t>
+          <t>YY5100B1XL</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>B07D74DCPD</t>
+          <t>B0719C6QGW</t>
         </is>
       </c>
       <c r="H53" s="4" t="n">
-        <v>143.0</v>
+        <v>699.0</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="J53" s="6" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.010014306151645207</v>
       </c>
       <c r="K53" s="7" t="n">
-        <v>0.2</v>
+        <v>0.1757142857142857</v>
       </c>
       <c r="L53" s="7" t="n">
-        <v>0.2</v>
+        <v>1.23</v>
       </c>
       <c r="M53" s="7" t="n">
         <v>0.0</v>
@@ -4048,10 +4170,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43286.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
@@ -4060,49 +4182,55 @@
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>waterproof shoe covers</t>
+          <t>清ETYY</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>middle tube</t>
+          <t>充气雨衣</t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>YX-IUCY-518-WO-L</t>
+          <t>YY5100R5XXL</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>B07D74JGP3</t>
+          <t>B01AXMPXWO</t>
         </is>
       </c>
       <c r="H54" s="4" t="n">
-        <v>38.0</v>
+        <v>113.0</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J54" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K54"/>
+        <v>0.035398230088495575</v>
+      </c>
+      <c r="K54" s="7" t="n">
+        <v>0.185</v>
+      </c>
       <c r="L54" s="7" t="n">
-        <v>0.0</v>
+        <v>0.74</v>
       </c>
       <c r="M54" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N54"/>
-      <c r="O54"/>
+      <c r="O54" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P54" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R54"/>
+      <c r="R54" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S54" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4118,10 +4246,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
@@ -4130,76 +4258,76 @@
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>tby精准关键词</t>
+          <t>清ETYY</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>Decoration</t>
+          <t>充气雨衣</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>TBYPRBONE-M</t>
+          <t>YY5100Y0XXL</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>B01N0OX2DR</t>
+          <t>B01AXMPPJU</t>
         </is>
       </c>
       <c r="H55" s="4" t="n">
-        <v>1062.0</v>
+        <v>7056.0</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="J55" s="6" t="n">
-        <v>0.010357815442561208</v>
+        <v>0.0031179138321995466</v>
       </c>
       <c r="K55" s="7" t="n">
-        <v>0.2290909090909091</v>
+        <v>0.17727272727272728</v>
       </c>
       <c r="L55" s="7" t="n">
-        <v>2.52</v>
+        <v>3.9</v>
       </c>
       <c r="M55" s="7" t="n">
-        <v>45.98</v>
+        <v>10.0</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.054806437581557205</v>
+        <v>0.39</v>
       </c>
       <c r="O55" s="5" t="n">
-        <v>18.246031746031743</v>
+        <v>2.5641025641025643</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q55" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R55" s="6" t="n">
-        <v>0.18181818181818182</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="S55" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T55" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U55" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V55" s="7" t="n">
-        <v>45.98</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>43286.0</v>
+        <v>43334.0</v>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
@@ -4208,26 +4336,26 @@
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>tby精准关键词</t>
+          <t>ZB-清</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>Decoration</t>
+          <t>花桌布</t>
         </is>
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS371-YL-L</t>
+          <t>YMQYQHCZQ100*140CM</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>B07CYT3T23</t>
+          <t>B01C8QIRLW</t>
         </is>
       </c>
       <c r="H56" s="4" t="n">
-        <v>23.0</v>
+        <v>105.0</v>
       </c>
       <c r="I56" s="4" t="n">
         <v>0.0</v>
@@ -4266,10 +4394,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
@@ -4278,68 +4406,76 @@
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>tby精准关键词</t>
+          <t>372</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>Decoration</t>
+          <t>372</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>YY1100W0L</t>
+          <t>YY-IULCY-KS372-BL-XL</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>B01AXMOYLU</t>
+          <t>B07CYNJY36</t>
         </is>
       </c>
       <c r="H57" s="4" t="n">
-        <v>104.0</v>
+        <v>3654.0</v>
       </c>
       <c r="I57" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K57"/>
+        <v>0.0016420361247947454</v>
+      </c>
+      <c r="K57" s="7" t="n">
+        <v>0.3733333333333333</v>
+      </c>
       <c r="L57" s="7" t="n">
-        <v>0.0</v>
+        <v>2.2399999999999998</v>
       </c>
       <c r="M57" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N57"/>
-      <c r="O57"/>
+        <v>37.98</v>
+      </c>
+      <c r="N57" s="6" t="n">
+        <v>0.05897840968931016</v>
+      </c>
+      <c r="O57" s="5" t="n">
+        <v>16.955357142857142</v>
+      </c>
       <c r="P57" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q57" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R57"/>
+        <v>2.0</v>
+      </c>
+      <c r="R57" s="6" t="n">
+        <v>0.33333333333333326</v>
+      </c>
       <c r="S57" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T57" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U57" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V57" s="7" t="n">
-        <v>0.0</v>
+        <v>37.98</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>43284.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
@@ -4348,49 +4484,55 @@
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>372</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>ETYI</t>
+          <t>372</t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>ETYIYELLOW-L</t>
+          <t>YY-IULCY-KS372-GN-L</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>B073QP8N2J</t>
+          <t>B07CYZ1TYG</t>
         </is>
       </c>
       <c r="H58" s="4" t="n">
-        <v>22.0</v>
+        <v>1703.0</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="J58" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K58"/>
+        <v>0.005284791544333529</v>
+      </c>
+      <c r="K58" s="7" t="n">
+        <v>0.23333333333333334</v>
+      </c>
       <c r="L58" s="7" t="n">
-        <v>0.0</v>
+        <v>2.1</v>
       </c>
       <c r="M58" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N58"/>
-      <c r="O58"/>
+      <c r="O58" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P58" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q58" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R58"/>
+      <c r="R58" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S58" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4406,10 +4548,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
@@ -4418,76 +4560,74 @@
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>桌布-二</t>
+          <t>收纳袋</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>MZYSZHUOBUDT</t>
+          <t>收纳袋ZAKKA</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>MZYSZHUOBUDTMAP60*60CM</t>
+          <t>FMHSGJH67*20CM</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>B071V5YMVC</t>
+          <t>B073R8G5PX</t>
         </is>
       </c>
       <c r="H59" s="4" t="n">
-        <v>1102.0</v>
+        <v>206.0</v>
       </c>
       <c r="I59" s="4" t="n">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
       <c r="J59" s="6" t="n">
-        <v>0.016333938294010888</v>
+        <v>0.014563106796116505</v>
       </c>
       <c r="K59" s="7" t="n">
-        <v>0.2683333333333333</v>
+        <v>0.12666666666666668</v>
       </c>
       <c r="L59" s="7" t="n">
-        <v>4.829999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="M59" s="7" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="N59" s="6" t="n">
-        <v>0.2981481481481481</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N59"/>
       <c r="O59" s="5" t="n">
-        <v>3.354037267080746</v>
+        <v>0.0</v>
       </c>
       <c r="P59" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R59" s="6" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="S59" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T59" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U59" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V59" s="7" t="n">
-        <v>16.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
@@ -4496,74 +4636,76 @@
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>雨衣测</t>
+          <t>waterproof shoe covers</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>ETYI</t>
+          <t>high tube</t>
         </is>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>YDYPFS-XL</t>
+          <t>YX-IUCY-819-WO-L</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>B074K8RKK4</t>
+          <t>B07D75D4PM</t>
         </is>
       </c>
       <c r="H60" s="4" t="n">
-        <v>89.0</v>
+        <v>1489.0</v>
       </c>
       <c r="I60" s="4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J60" s="6" t="n">
+        <v>0.008059100067159167</v>
+      </c>
+      <c r="K60" s="7" t="n">
+        <v>0.2575</v>
+      </c>
+      <c r="L60" s="7" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="M60" s="7" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="N60" s="6" t="n">
+        <v>0.22087205146533237</v>
+      </c>
+      <c r="O60" s="5" t="n">
+        <v>4.527508090614887</v>
+      </c>
+      <c r="P60" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="J60" s="6" t="n">
-        <v>0.011235955056179777</v>
-      </c>
-      <c r="K60" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L60" s="7" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M60" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N60"/>
-      <c r="O60" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P60" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q60" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R60" s="6" t="n">
-        <v>0.0</v>
+        <v>0.08333333333333331</v>
       </c>
       <c r="S60" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T60" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U60" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V60" s="7" t="n">
-        <v>0.0</v>
+        <v>13.99</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>43289.0</v>
+        <v>43334.0</v>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
@@ -4572,26 +4714,26 @@
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>chair cover</t>
+          <t>Throw Pillow</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>SXHL</t>
+          <t>BZLINENLUX</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>SXHLYITAO1-LH-001GO40x60CM</t>
+          <t>HNJAX2SW045*45CM</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>B072L36CJW</t>
+          <t>B01JIWOFRY</t>
         </is>
       </c>
       <c r="H61" s="4" t="n">
-        <v>54.0</v>
+        <v>179.0</v>
       </c>
       <c r="I61" s="4" t="n">
         <v>0.0</v>
@@ -4630,10 +4772,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>43289.0</v>
+        <v>43334.0</v>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
@@ -4642,55 +4784,49 @@
       </c>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>收纳袋</t>
+          <t>Throw Pillow</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>收纳袋ZAKKA</t>
+          <t>BZLINENLUX</t>
         </is>
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>SND-IUYL111-BE</t>
+          <t>BZXKHH628E</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>B07BGWRB7M</t>
+          <t>B01JLWM1S6</t>
         </is>
       </c>
       <c r="H62" s="4" t="n">
-        <v>162.0</v>
+        <v>241.0</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J62" s="6" t="n">
-        <v>0.012345679012345678</v>
-      </c>
-      <c r="K62" s="7" t="n">
-        <v>0.135</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K62"/>
       <c r="L62" s="7" t="n">
-        <v>0.27</v>
+        <v>0.0</v>
       </c>
       <c r="M62" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N62"/>
-      <c r="O62" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O62"/>
       <c r="P62" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q62" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R62" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R62"/>
       <c r="S62" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4706,10 +4842,10 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>43284.0</v>
+        <v>43333.0</v>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
@@ -4718,63 +4854,65 @@
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>桌布-二</t>
+          <t>Throw Pillow</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>雏菊桌布</t>
+          <t>BZLINENLUX</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0140*140CM</t>
+          <t>H5-F378-ECJO</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJ4SC</t>
+          <t>B01N7ENPJR</t>
         </is>
       </c>
       <c r="H63" s="4" t="n">
-        <v>31.0</v>
+        <v>10892.0</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>2.0</v>
+        <v>38.0</v>
       </c>
       <c r="J63" s="6" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.0034887991186191695</v>
       </c>
       <c r="K63" s="7" t="n">
-        <v>0.195</v>
+        <v>0.5618421052631579</v>
       </c>
       <c r="L63" s="7" t="n">
-        <v>0.39</v>
+        <v>21.35</v>
       </c>
       <c r="M63" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N63"/>
+        <v>9.9</v>
+      </c>
+      <c r="N63" s="6" t="n">
+        <v>2.1565656565656566</v>
+      </c>
       <c r="O63" s="5" t="n">
-        <v>0.0</v>
+        <v>0.46370023419203743</v>
       </c>
       <c r="P63" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R63" s="6" t="n">
-        <v>0.0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="S63" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T63" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U63" s="7" t="n">
-        <v>0.0</v>
+        <v>9.9</v>
       </c>
       <c r="V63" s="7" t="n">
         <v>0.0</v>
@@ -4782,10 +4920,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43285.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>43287.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
@@ -4794,57 +4932,65 @@
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>raincoat-adult</t>
+          <t>支撑杆手动</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>rain poncho</t>
+          <t>支撑杆</t>
         </is>
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-XZM100-BLNWT</t>
+          <t>ZCGTZ-IUCY001-AE</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>B07DV1KGJ4</t>
+          <t>B07DFFK33K</t>
         </is>
       </c>
       <c r="H64" s="4" t="n">
-        <v>2.0</v>
+        <v>4684.0</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="J64" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K64"/>
+        <v>0.010888129803586676</v>
+      </c>
+      <c r="K64" s="7" t="n">
+        <v>0.5827450980392156</v>
+      </c>
       <c r="L64" s="7" t="n">
-        <v>0.0</v>
+        <v>29.719999999999995</v>
       </c>
       <c r="M64" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N64"/>
-      <c r="O64"/>
+        <v>134.97</v>
+      </c>
+      <c r="N64" s="6" t="n">
+        <v>0.22019708083277764</v>
+      </c>
+      <c r="O64" s="5" t="n">
+        <v>4.5413862718707945</v>
+      </c>
       <c r="P64" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R64"/>
+        <v>3.0</v>
+      </c>
+      <c r="R64" s="6" t="n">
+        <v>0.0588235294117647</v>
+      </c>
       <c r="S64" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T64" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U64" s="7" t="n">
-        <v>0.0</v>
+        <v>134.97</v>
       </c>
       <c r="V64" s="7" t="n">
         <v>0.0</v>
@@ -4852,10 +4998,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
@@ -4864,55 +5010,49 @@
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>raincoat-adult</t>
+          <t>chair cover</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>rain poncho</t>
+          <t>SXHL</t>
         </is>
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-XZM100-KKNWT</t>
+          <t>SXHLYITAO1-LH-001MHS40x60CM</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>B07DV73JMF</t>
+          <t>B0718Y1XP3</t>
         </is>
       </c>
       <c r="H65" s="4" t="n">
-        <v>6.0</v>
+        <v>109.0</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J65" s="6" t="n">
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="K65" s="7" t="n">
-        <v>0.12</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K65"/>
       <c r="L65" s="7" t="n">
-        <v>0.12</v>
+        <v>0.0</v>
       </c>
       <c r="M65" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N65"/>
-      <c r="O65" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O65"/>
       <c r="P65" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q65" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R65" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R65"/>
       <c r="S65" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4928,10 +5068,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43288.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>43289.0</v>
+        <v>43334.0</v>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
@@ -4940,66 +5080,76 @@
       </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>raincoat-adult</t>
+          <t>精准收纳袋</t>
         </is>
       </c>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>rain poncho</t>
+          <t>8 pockets</t>
         </is>
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-XZM100-RDNWT</t>
+          <t>ZAKKA0633B035*50CM</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
         <is>
-          <t>B07DTZB3NP</t>
+          <t>B01H1X9H2K</t>
         </is>
       </c>
       <c r="H66" s="4" t="n">
-        <v>0.0</v>
+        <v>834.0</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J66"/>
-      <c r="K66"/>
+        <v>7.0</v>
+      </c>
+      <c r="J66" s="6" t="n">
+        <v>0.008393285371702638</v>
+      </c>
+      <c r="K66" s="7" t="n">
+        <v>0.5899999999999999</v>
+      </c>
       <c r="L66" s="7" t="n">
-        <v>0.0</v>
+        <v>4.129999999999999</v>
       </c>
       <c r="M66" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N66"/>
-      <c r="O66"/>
+        <v>9.99</v>
+      </c>
+      <c r="N66" s="6" t="n">
+        <v>0.4134134134134133</v>
+      </c>
+      <c r="O66" s="5" t="n">
+        <v>2.418886198547216</v>
+      </c>
       <c r="P66" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R66"/>
+        <v>1.0</v>
+      </c>
+      <c r="R66" s="6" t="n">
+        <v>0.14285714285714285</v>
+      </c>
       <c r="S66" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T66" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U66" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V66" s="7" t="n">
-        <v>0.0</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>43286.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
@@ -5008,57 +5158,65 @@
       </c>
       <c r="D67" s="1" t="inlineStr">
         <is>
-          <t>raincoat-adult</t>
+          <t>kids rain poncho-手动</t>
         </is>
       </c>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>rain poncho</t>
+          <t>ETYI</t>
         </is>
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-XZM100-BKNWT</t>
+          <t>ETYIYUANDIAN-XL</t>
         </is>
       </c>
       <c r="G67" s="1" t="inlineStr">
         <is>
-          <t>B07DV9BMHF</t>
+          <t>B0771JJC17</t>
         </is>
       </c>
       <c r="H67" s="4" t="n">
+        <v>475.0</v>
+      </c>
+      <c r="I67" s="4" t="n">
         <v>3.0</v>
       </c>
-      <c r="I67" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="J67" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K67"/>
+        <v>0.00631578947368421</v>
+      </c>
+      <c r="K67" s="7" t="n">
+        <v>0.11333333333333333</v>
+      </c>
       <c r="L67" s="7" t="n">
-        <v>0.0</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="M67" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N67"/>
-      <c r="O67"/>
+        <v>15.99</v>
+      </c>
+      <c r="N67" s="6" t="n">
+        <v>0.02126328955597248</v>
+      </c>
+      <c r="O67" s="5" t="n">
+        <v>47.029411764705884</v>
+      </c>
       <c r="P67" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R67"/>
+        <v>1.0</v>
+      </c>
+      <c r="R67" s="6" t="n">
+        <v>0.33333333333333326</v>
+      </c>
       <c r="S67" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T67" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U67" s="7" t="n">
-        <v>0.0</v>
+        <v>15.99</v>
       </c>
       <c r="V67" s="7" t="n">
         <v>0.0</v>
@@ -5066,10 +5224,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43283.0</v>
+        <v>43333.0</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
@@ -5078,55 +5236,49 @@
       </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
-          <t>raincoat-adult</t>
+          <t>kids rain poncho-手动</t>
         </is>
       </c>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>rain poncho</t>
+          <t>ETYI</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-XZM100-CFNWT</t>
+          <t>ETYIBLUE-M-2</t>
         </is>
       </c>
       <c r="G68" s="1" t="inlineStr">
         <is>
-          <t>B07DV5JV44</t>
+          <t>B07F9RX9DD</t>
         </is>
       </c>
       <c r="H68" s="4" t="n">
-        <v>55.0</v>
+        <v>28.0</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J68" s="6" t="n">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="K68" s="7" t="n">
-        <v>0.09</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K68"/>
       <c r="L68" s="7" t="n">
-        <v>0.09</v>
+        <v>0.0</v>
       </c>
       <c r="M68" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N68"/>
-      <c r="O68" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O68"/>
       <c r="P68" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q68" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R68" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R68"/>
       <c r="S68" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5142,10 +5294,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43284.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
@@ -5154,49 +5306,55 @@
       </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>raincoat-adult</t>
+          <t>狗桩手动</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>rain poncho</t>
+          <t>狗桩</t>
         </is>
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-XZM100-GNNWT</t>
+          <t>SGZ-LULHY-001</t>
         </is>
       </c>
       <c r="G69" s="1" t="inlineStr">
         <is>
-          <t>B07DV3LV6M</t>
+          <t>B07DQNVQYY</t>
         </is>
       </c>
       <c r="H69" s="4" t="n">
-        <v>16.0</v>
+        <v>67.0</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J69" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K69"/>
+        <v>0.029850746268656712</v>
+      </c>
+      <c r="K69" s="7" t="n">
+        <v>0.22999999999999998</v>
+      </c>
       <c r="L69" s="7" t="n">
-        <v>0.0</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="M69" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N69"/>
-      <c r="O69"/>
+      <c r="O69" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P69" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q69" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R69"/>
+      <c r="R69" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S69" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5212,10 +5370,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43283.0</v>
+        <v>43335.0</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>43289.0</v>
+        <v>43335.0</v>
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
@@ -5224,76 +5382,74 @@
       </c>
       <c r="D70" s="1" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>tby精准关键词</t>
         </is>
       </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>广告组 1</t>
         </is>
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS372-YL-XL</t>
+          <t>YI-IUYLTBY-N5</t>
         </is>
       </c>
       <c r="G70" s="1" t="inlineStr">
         <is>
-          <t>B07CYSSGYK</t>
+          <t>B079JBWM3Q</t>
         </is>
       </c>
       <c r="H70" s="4" t="n">
-        <v>3154.0</v>
+        <v>153.0</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="J70" s="6" t="n">
-        <v>0.004121750158528852</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="K70" s="7" t="n">
-        <v>0.49923076923076926</v>
+        <v>0.77</v>
       </c>
       <c r="L70" s="7" t="n">
-        <v>6.49</v>
+        <v>0.77</v>
       </c>
       <c r="M70" s="7" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="N70" s="6" t="n">
-        <v>0.46390278770550386</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N70"/>
       <c r="O70" s="5" t="n">
-        <v>2.1556240369799693</v>
+        <v>0.0</v>
       </c>
       <c r="P70" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q70" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R70" s="6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.0</v>
       </c>
       <c r="S70" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T70" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U70" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V70" s="7" t="n">
-        <v>13.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>43289.0</v>
+        <v>43334.0</v>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
@@ -5302,76 +5458,68 @@
       </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>FSFZB</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>酒店桌布</t>
         </is>
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS372-GN-XL</t>
+          <t>FSFZB006J0RO220CM</t>
         </is>
       </c>
       <c r="G71" s="1" t="inlineStr">
         <is>
-          <t>B07CYNNW22</t>
+          <t>B01F5LQLW4</t>
         </is>
       </c>
       <c r="H71" s="4" t="n">
-        <v>10541.0</v>
+        <v>18.0</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="J71" s="6" t="n">
-        <v>0.0026562944692154443</v>
-      </c>
-      <c r="K71" s="7" t="n">
-        <v>0.47821428571428576</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K71"/>
       <c r="L71" s="7" t="n">
-        <v>13.39</v>
+        <v>0.0</v>
       </c>
       <c r="M71" s="7" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="N71" s="6" t="n">
-        <v>0.9571122230164404</v>
-      </c>
-      <c r="O71" s="5" t="n">
-        <v>1.044809559372666</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71"/>
       <c r="P71" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R71" s="6" t="n">
-        <v>0.03571428571428571</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R71"/>
       <c r="S71" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T71" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U71" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V71" s="7" t="n">
-        <v>13.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>43289.0</v>
+        <v>43334.0</v>
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
@@ -5380,76 +5528,74 @@
       </c>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>FSFZB</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>酒店桌布</t>
         </is>
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS370-RD-L</t>
+          <t>FSFZB001W0RO180CM</t>
         </is>
       </c>
       <c r="G72" s="1" t="inlineStr">
         <is>
-          <t>B07CYNGKTC</t>
+          <t>B01F5LPYAO</t>
         </is>
       </c>
       <c r="H72" s="4" t="n">
-        <v>15877.0</v>
+        <v>1267.0</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>46.0</v>
+        <v>4.0</v>
       </c>
       <c r="J72" s="6" t="n">
-        <v>0.0028972727845310827</v>
+        <v>0.0031570639305445935</v>
       </c>
       <c r="K72" s="7" t="n">
-        <v>0.5271739130434783</v>
+        <v>0.745</v>
       </c>
       <c r="L72" s="7" t="n">
-        <v>24.25</v>
+        <v>2.98</v>
       </c>
       <c r="M72" s="7" t="n">
-        <v>92.93999999999998</v>
-      </c>
-      <c r="N72" s="6" t="n">
-        <v>0.26092102431676356</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N72"/>
       <c r="O72" s="5" t="n">
-        <v>3.832577319587628</v>
+        <v>0.0</v>
       </c>
       <c r="P72" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q72" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="R72" s="6" t="n">
-        <v>0.13043478260869565</v>
+        <v>0.0</v>
       </c>
       <c r="S72" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T72" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="U72" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V72" s="7" t="n">
-        <v>92.93999999999998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
@@ -5458,76 +5604,76 @@
       </c>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>tby精准关键词</t>
         </is>
       </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>Decoration</t>
         </is>
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS371-YL-XL</t>
+          <t>YY1100G0M</t>
         </is>
       </c>
       <c r="G73" s="1" t="inlineStr">
         <is>
-          <t>B07CYN4GVK</t>
+          <t>B01AXMP04U</t>
         </is>
       </c>
       <c r="H73" s="4" t="n">
-        <v>21512.0</v>
+        <v>4874.0</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>94.0</v>
+        <v>26.0</v>
       </c>
       <c r="J73" s="6" t="n">
-        <v>0.004369654146522871</v>
+        <v>0.005334427574887156</v>
       </c>
       <c r="K73" s="7" t="n">
-        <v>0.565531914893617</v>
+        <v>0.25076923076923074</v>
       </c>
       <c r="L73" s="7" t="n">
-        <v>53.16</v>
+        <v>6.52</v>
       </c>
       <c r="M73" s="7" t="n">
-        <v>291.80999999999995</v>
+        <v>114.85999999999999</v>
       </c>
       <c r="N73" s="6" t="n">
-        <v>0.1821733319625784</v>
+        <v>0.05676475709559464</v>
       </c>
       <c r="O73" s="5" t="n">
-        <v>5.489277652370203</v>
+        <v>17.616564417177912</v>
       </c>
       <c r="P73" s="4" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="R73" s="6" t="n">
-        <v>0.18085106382978725</v>
+        <v>0.19230769230769235</v>
       </c>
       <c r="S73" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T73" s="4" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="U73" s="7" t="n">
-        <v>27.98</v>
+        <v>0.0</v>
       </c>
       <c r="V73" s="7" t="n">
-        <v>263.83000000000004</v>
+        <v>114.85999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
@@ -5536,76 +5682,76 @@
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>372</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>372</t>
         </is>
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>YY-IULUY-KS374-YL-XL</t>
+          <t>YY-IULCY-KS372-PP-M</t>
         </is>
       </c>
       <c r="G74" s="1" t="inlineStr">
         <is>
-          <t>B07CYMV2ZC</t>
+          <t>B07CYQPSKD</t>
         </is>
       </c>
       <c r="H74" s="4" t="n">
-        <v>10498.0</v>
+        <v>2551.0</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>59.0</v>
+        <v>13.0</v>
       </c>
       <c r="J74" s="6" t="n">
-        <v>0.005620118117736711</v>
+        <v>0.005096040768326146</v>
       </c>
       <c r="K74" s="7" t="n">
-        <v>0.4832203389830509</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="L74" s="7" t="n">
-        <v>28.51</v>
+        <v>6.0</v>
       </c>
       <c r="M74" s="7" t="n">
-        <v>78.94</v>
+        <v>13.99</v>
       </c>
       <c r="N74" s="6" t="n">
-        <v>0.3611603749683304</v>
+        <v>0.42887776983559683</v>
       </c>
       <c r="O74" s="5" t="n">
-        <v>2.7688530340231496</v>
+        <v>2.3316666666666666</v>
       </c>
       <c r="P74" s="4" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q74" s="4" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="R74" s="6" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S74" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="T74" s="4" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="U74" s="7" t="n">
-        <v>12.99</v>
+        <v>13.99</v>
       </c>
       <c r="V74" s="7" t="n">
-        <v>65.95</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43283.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
@@ -5614,76 +5760,76 @@
       </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>清雨衣</t>
         </is>
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>清库存</t>
         </is>
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>YY-IULCY-KS377-HEAD-M</t>
+          <t>YY2127GR</t>
         </is>
       </c>
       <c r="G75" s="1" t="inlineStr">
         <is>
-          <t>B07CYVFKH9</t>
+          <t>B01AXMOPYQ</t>
         </is>
       </c>
       <c r="H75" s="4" t="n">
-        <v>5691.0</v>
+        <v>94070.0</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>27.0</v>
+        <v>138.0</v>
       </c>
       <c r="J75" s="6" t="n">
-        <v>0.004744333157617291</v>
+        <v>0.001466992665036675</v>
       </c>
       <c r="K75" s="7" t="n">
-        <v>0.5118518518518518</v>
+        <v>0.33644927536231883</v>
       </c>
       <c r="L75" s="7" t="n">
-        <v>13.819999999999999</v>
+        <v>46.43</v>
       </c>
       <c r="M75" s="7" t="n">
-        <v>41.97</v>
+        <v>88.96</v>
       </c>
       <c r="N75" s="6" t="n">
-        <v>0.3292828210626638</v>
+        <v>0.521919964028777</v>
       </c>
       <c r="O75" s="5" t="n">
-        <v>3.0369030390738065</v>
+        <v>1.9160025845358604</v>
       </c>
       <c r="P75" s="4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="R75" s="6" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.028985507246376812</v>
       </c>
       <c r="S75" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T75" s="4" t="n">
         <v>3.0</v>
       </c>
       <c r="U75" s="7" t="n">
-        <v>0.0</v>
+        <v>19.99</v>
       </c>
       <c r="V75" s="7" t="n">
-        <v>41.97</v>
+        <v>68.97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43285.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
@@ -5692,74 +5838,76 @@
       </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>户外</t>
+          <t>清雨衣</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>SGZ</t>
+          <t>清库存</t>
         </is>
       </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
-          <t>SGZ-LULHY-001</t>
+          <t>YY5100XB0L</t>
         </is>
       </c>
       <c r="G76" s="1" t="inlineStr">
         <is>
-          <t>B07DQNVQYY</t>
+          <t>B01AXMO99M</t>
         </is>
       </c>
       <c r="H76" s="4" t="n">
-        <v>77.0</v>
+        <v>44531.0</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>2.0</v>
+        <v>160.0</v>
       </c>
       <c r="J76" s="6" t="n">
-        <v>0.025974025974025972</v>
+        <v>0.003593002627383171</v>
       </c>
       <c r="K76" s="7" t="n">
-        <v>0.165</v>
+        <v>0.43181250000000004</v>
       </c>
       <c r="L76" s="7" t="n">
-        <v>0.33</v>
+        <v>69.09</v>
       </c>
       <c r="M76" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N76"/>
+        <v>179.91</v>
+      </c>
+      <c r="N76" s="6" t="n">
+        <v>0.38402534600633653</v>
+      </c>
       <c r="O76" s="5" t="n">
-        <v>0.0</v>
+        <v>2.6039947894051236</v>
       </c>
       <c r="P76" s="4" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q76" s="4" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="R76" s="6" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="S76" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T76" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="U76" s="7" t="n">
-        <v>0.0</v>
+        <v>50.97</v>
       </c>
       <c r="V76" s="7" t="n">
-        <v>0.0</v>
+        <v>128.94</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43285.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
@@ -5768,56 +5916,56 @@
       </c>
       <c r="D77" s="1" t="inlineStr">
         <is>
-          <t>桌布-精准一</t>
+          <t>测新儿童雨衣KS</t>
         </is>
       </c>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>地图桌布</t>
+          <t>big eye&amp; star</t>
         </is>
       </c>
       <c r="F77" s="1" t="inlineStr">
         <is>
-          <t>MZYSZHUOBUDTMAP140*140CM</t>
+          <t>YY-IULCY-HZYD200-LGSTAR-M</t>
         </is>
       </c>
       <c r="G77" s="1" t="inlineStr">
         <is>
-          <t>B06XXGBRDS</t>
+          <t>B07FGD8C6J</t>
         </is>
       </c>
       <c r="H77" s="4" t="n">
-        <v>4947.0</v>
+        <v>6006.0</v>
       </c>
       <c r="I77" s="4" t="n">
-        <v>29.0</v>
+        <v>49.0</v>
       </c>
       <c r="J77" s="6" t="n">
-        <v>0.00586213866990095</v>
+        <v>0.008158508158508158</v>
       </c>
       <c r="K77" s="7" t="n">
-        <v>0.30689655172413793</v>
+        <v>0.1979591836734694</v>
       </c>
       <c r="L77" s="7" t="n">
-        <v>8.9</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="M77" s="7" t="n">
-        <v>66.5</v>
+        <v>53.96</v>
       </c>
       <c r="N77" s="6" t="n">
-        <v>0.13383458646616542</v>
+        <v>0.1797627872498147</v>
       </c>
       <c r="O77" s="5" t="n">
-        <v>7.47191011235955</v>
+        <v>5.562886597938144</v>
       </c>
       <c r="P77" s="4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q77" s="4" t="n">
         <v>4.0</v>
       </c>
       <c r="R77" s="6" t="n">
-        <v>0.10344827586206896</v>
+        <v>0.0816326530612245</v>
       </c>
       <c r="S77" s="4" t="n">
         <v>0.0</v>
@@ -5829,15 +5977,15 @@
         <v>0.0</v>
       </c>
       <c r="V77" s="7" t="n">
-        <v>66.5</v>
+        <v>53.96</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43285.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
@@ -5846,49 +5994,55 @@
       </c>
       <c r="D78" s="1" t="inlineStr">
         <is>
-          <t>桌布-精准一</t>
+          <t>户外</t>
         </is>
       </c>
       <c r="E78" s="1" t="inlineStr">
         <is>
-          <t>雏菊桌布</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
-          <t>YMQYQXDHW0140*250CM</t>
+          <t>TM-IULCY-300-LB</t>
         </is>
       </c>
       <c r="G78" s="1" t="inlineStr">
         <is>
-          <t>B01C8QJADG</t>
+          <t>B07FF3JGFS</t>
         </is>
       </c>
       <c r="H78" s="4" t="n">
-        <v>29.0</v>
+        <v>75.0</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J78" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K78"/>
+        <v>0.013333333333333334</v>
+      </c>
+      <c r="K78" s="7" t="n">
+        <v>0.26</v>
+      </c>
       <c r="L78" s="7" t="n">
-        <v>0.0</v>
+        <v>0.26</v>
       </c>
       <c r="M78" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N78"/>
-      <c r="O78"/>
+      <c r="O78" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P78" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q78" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R78"/>
+      <c r="R78" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S78" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5904,10 +6058,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43285.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>43289.0</v>
+        <v>43338.0</v>
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
@@ -5916,26 +6070,26 @@
       </c>
       <c r="D79" s="1" t="inlineStr">
         <is>
-          <t>精准收纳袋</t>
+          <t>户外</t>
         </is>
       </c>
       <c r="E79" s="1" t="inlineStr">
         <is>
-          <t>8 pockets</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="F79" s="1" t="inlineStr">
         <is>
-          <t>ZAKKA0633R035*50CM</t>
+          <t>TM-IULCY-300-LG</t>
         </is>
       </c>
       <c r="G79" s="1" t="inlineStr">
         <is>
-          <t>B01H1X9GOY</t>
+          <t>B07FDVY7MN</t>
         </is>
       </c>
       <c r="H79" s="4" t="n">
-        <v>170.0</v>
+        <v>102.0</v>
       </c>
       <c r="I79" s="4" t="n">
         <v>0.0</v>
@@ -5974,10 +6128,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43285.0</v>
+        <v>43332.0</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>43289.0</v>
+        <v>43335.0</v>
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
@@ -5986,66 +6140,2676 @@
       </c>
       <c r="D80" s="1" t="inlineStr">
         <is>
-          <t>桌布-二</t>
+          <t>ZB-清</t>
         </is>
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t>MZYSZHUOBUDT</t>
+          <t>格子条纹</t>
         </is>
       </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
-          <t>MZYSZHUOBUDTLEIS140*220CM</t>
+          <t>DLJJZHUOBU-BGZW070x70CM</t>
         </is>
       </c>
       <c r="G80" s="1" t="inlineStr">
         <is>
-          <t>B074PL8264</t>
+          <t>B071RKG97D</t>
         </is>
       </c>
       <c r="H80" s="4" t="n">
-        <v>111.0</v>
+        <v>619.0</v>
       </c>
       <c r="I80" s="4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J80" s="6" t="n">
+        <v>0.012924071082390954</v>
+      </c>
+      <c r="K80" s="7" t="n">
+        <v>0.69875</v>
+      </c>
+      <c r="L80" s="7" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="M80" s="7" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="N80" s="6" t="n">
+        <v>0.4662218515429524</v>
+      </c>
+      <c r="O80" s="5" t="n">
+        <v>2.144901610017889</v>
+      </c>
+      <c r="P80" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q80" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R80" s="6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="S80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T80" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U80" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V80" s="7" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>374kids</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="F81" s="1" t="inlineStr">
+        <is>
+          <t>YY-IULCY-KS377-PLANT-L</t>
+        </is>
+      </c>
+      <c r="G81" s="1" t="inlineStr">
+        <is>
+          <t>B07CYP8DFK</t>
+        </is>
+      </c>
+      <c r="H81" s="4" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="I81" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J81" s="6" t="n">
+        <v>0.00625</v>
+      </c>
+      <c r="K81" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L81" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M81" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P81" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q81" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R81" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S81" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T81" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U81" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V81" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="F82" s="1" t="inlineStr">
+        <is>
+          <t>YY-IULCY-KS371-WT-M</t>
+        </is>
+      </c>
+      <c r="G82" s="1" t="inlineStr">
+        <is>
+          <t>B07CYYVMF8</t>
+        </is>
+      </c>
+      <c r="H82" s="4" t="n">
+        <v>2192.0</v>
+      </c>
+      <c r="I82" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J82" s="6" t="n">
+        <v>4.562043795620438E-4</v>
+      </c>
+      <c r="K82" s="7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L82" s="7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M82" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P82" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q82" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R82" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S82" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T82" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U82" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V82" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>43337.0</v>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="F83" s="1" t="inlineStr">
+        <is>
+          <t>YY-IULCY-KS377-BIRD-M</t>
+        </is>
+      </c>
+      <c r="G83" s="1" t="inlineStr">
+        <is>
+          <t>B07CYV2X4S</t>
+        </is>
+      </c>
+      <c r="H83" s="4" t="n">
+        <v>20197.0</v>
+      </c>
+      <c r="I83" s="4" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="J83" s="6" t="n">
+        <v>0.005446353418824578</v>
+      </c>
+      <c r="K83" s="7" t="n">
+        <v>0.5133636363636364</v>
+      </c>
+      <c r="L83" s="7" t="n">
+        <v>56.47</v>
+      </c>
+      <c r="M83" s="7" t="n">
+        <v>115.91</v>
+      </c>
+      <c r="N83" s="6" t="n">
+        <v>0.4871883357777586</v>
+      </c>
+      <c r="O83" s="5" t="n">
+        <v>2.0525942978572695</v>
+      </c>
+      <c r="P83" s="4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q83" s="4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R83" s="6" t="n">
+        <v>0.08181818181818182</v>
+      </c>
+      <c r="S83" s="4" t="n">
         <v>2.0</v>
       </c>
-      <c r="J80" s="6" t="n">
-        <v>0.018018018018018018</v>
-      </c>
-      <c r="K80" s="7" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="L80" s="7" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M80" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N80"/>
-      <c r="O80" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P80" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q80" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R80" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S80" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T80" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U80" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V80" s="7" t="n">
-        <v>0.0</v>
+      <c r="T83" s="4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U83" s="7" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="V83" s="7" t="n">
+        <v>93.93</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>棉拖</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="F84" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-W188-PP-38/39</t>
+        </is>
+      </c>
+      <c r="G84" s="1" t="inlineStr">
+        <is>
+          <t>B07FM19C5B</t>
+        </is>
+      </c>
+      <c r="H84" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K84"/>
+      <c r="L84" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M84" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R84"/>
+      <c r="S84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U84" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V84" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>棉拖</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="F85" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-W188-GN-38/39</t>
+        </is>
+      </c>
+      <c r="G85" s="1" t="inlineStr">
+        <is>
+          <t>B07FM6LRHB</t>
+        </is>
+      </c>
+      <c r="H85" s="4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I85" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K85"/>
+      <c r="L85" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M85" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q85" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R85"/>
+      <c r="S85" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T85" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U85" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V85" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>棉拖</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="F86" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-M1759-DB-29</t>
+        </is>
+      </c>
+      <c r="G86" s="1" t="inlineStr">
+        <is>
+          <t>B07FR8YG78</t>
+        </is>
+      </c>
+      <c r="H86" s="4" t="n">
+        <v>370.0</v>
+      </c>
+      <c r="I86" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J86" s="6" t="n">
+        <v>0.010810810810810811</v>
+      </c>
+      <c r="K86" s="7" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="L86" s="7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M86" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N86"/>
+      <c r="O86" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P86" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q86" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R86" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S86" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T86" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U86" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V86" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>棉拖</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="F87" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-W1759-PK-26</t>
+        </is>
+      </c>
+      <c r="G87" s="1" t="inlineStr">
+        <is>
+          <t>B07FPDK8GL</t>
+        </is>
+      </c>
+      <c r="H87" s="4" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="I87" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J87" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K87"/>
+      <c r="L87" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M87" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q87" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R87"/>
+      <c r="S87" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T87" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U87" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V87" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>棉拖</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="F88" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-W1759-GN-27</t>
+        </is>
+      </c>
+      <c r="G88" s="1" t="inlineStr">
+        <is>
+          <t>B07FP7MJYC</t>
+        </is>
+      </c>
+      <c r="H88" s="4" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="I88" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J88" s="6" t="n">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="K88" s="7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L88" s="7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M88" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P88" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q88" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R88" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S88" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T88" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U88" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V88" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>棉拖</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>1758</t>
+        </is>
+      </c>
+      <c r="F89" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-W1758-OR-25</t>
+        </is>
+      </c>
+      <c r="G89" s="1" t="inlineStr">
+        <is>
+          <t>B07FM8LS9R</t>
+        </is>
+      </c>
+      <c r="H89" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I89" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K89"/>
+      <c r="L89" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M89" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q89" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R89"/>
+      <c r="S89" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T89" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U89" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V89" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>棉拖</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>1758</t>
+        </is>
+      </c>
+      <c r="F90" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-W1758-PK-26</t>
+        </is>
+      </c>
+      <c r="G90" s="1" t="inlineStr">
+        <is>
+          <t>B07FM8L625</t>
+        </is>
+      </c>
+      <c r="H90" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I90" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K90"/>
+      <c r="L90" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M90" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q90" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R90"/>
+      <c r="S90" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T90" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U90" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V90" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>棉拖</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>1798</t>
+        </is>
+      </c>
+      <c r="F91" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-W1798-GN-26</t>
+        </is>
+      </c>
+      <c r="G91" s="1" t="inlineStr">
+        <is>
+          <t>B07FM77G99</t>
+        </is>
+      </c>
+      <c r="H91" s="4" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="I91" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J91" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K91"/>
+      <c r="L91" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M91" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q91" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R91"/>
+      <c r="S91" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T91" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U91" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V91" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>清仓</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <t>qc</t>
+        </is>
+      </c>
+      <c r="F92" s="1" t="inlineStr">
+        <is>
+          <t>HZ-SILVER</t>
+        </is>
+      </c>
+      <c r="G92" s="1" t="inlineStr">
+        <is>
+          <t>B073WX3KWG</t>
+        </is>
+      </c>
+      <c r="H92" s="4" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="I92" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K92"/>
+      <c r="L92" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M92" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q92" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R92"/>
+      <c r="S92" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T92" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U92" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V92" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>清仓</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>qc</t>
+        </is>
+      </c>
+      <c r="F93" s="1" t="inlineStr">
+        <is>
+          <t>YHJRBHIS-L</t>
+        </is>
+      </c>
+      <c r="G93" s="1" t="inlineStr">
+        <is>
+          <t>B075CMYF9L</t>
+        </is>
+      </c>
+      <c r="H93" s="4" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="I93" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J93" s="6" t="n">
+        <v>0.00303951367781155</v>
+      </c>
+      <c r="K93" s="7" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L93" s="7" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="M93" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N93"/>
+      <c r="O93" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P93" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q93" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R93" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S93" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T93" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U93" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V93" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>沙滩袋</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="inlineStr">
+        <is>
+          <t>沙滩袋</t>
+        </is>
+      </c>
+      <c r="F94" s="1" t="inlineStr">
+        <is>
+          <t>SB-100-K0</t>
+        </is>
+      </c>
+      <c r="G94" s="1" t="inlineStr">
+        <is>
+          <t>B07DVBN2KT</t>
+        </is>
+      </c>
+      <c r="H94" s="4" t="n">
+        <v>2319.0</v>
+      </c>
+      <c r="I94" s="4" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J94" s="6" t="n">
+        <v>0.0068995256576110395</v>
+      </c>
+      <c r="K94" s="7" t="n">
+        <v>0.8356250000000001</v>
+      </c>
+      <c r="L94" s="7" t="n">
+        <v>13.370000000000001</v>
+      </c>
+      <c r="M94" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N94"/>
+      <c r="O94" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P94" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q94" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R94" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S94" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T94" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U94" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V94" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="F95" s="1" t="inlineStr">
+        <is>
+          <t>YY-IULUY-KS374-DB-XL</t>
+        </is>
+      </c>
+      <c r="G95" s="1" t="inlineStr">
+        <is>
+          <t>B07CYNMJL8</t>
+        </is>
+      </c>
+      <c r="H95" s="4" t="n">
+        <v>16623.0</v>
+      </c>
+      <c r="I95" s="4" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="J95" s="6" t="n">
+        <v>0.005173554713348973</v>
+      </c>
+      <c r="K95" s="7" t="n">
+        <v>0.43151162790697684</v>
+      </c>
+      <c r="L95" s="7" t="n">
+        <v>37.11000000000001</v>
+      </c>
+      <c r="M95" s="7" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="N95" s="6" t="n">
+        <v>1.428406466512702</v>
+      </c>
+      <c r="O95" s="5" t="n">
+        <v>0.7000808407437348</v>
+      </c>
+      <c r="P95" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q95" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R95" s="6" t="n">
+        <v>0.011627906976744186</v>
+      </c>
+      <c r="S95" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T95" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U95" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V95" s="7" t="n">
+        <v>25.98</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>ZB-IULCY-YMQY100</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="inlineStr">
+        <is>
+          <t>ZB-IULCY-YMQY100</t>
+        </is>
+      </c>
+      <c r="F96" s="1" t="inlineStr">
+        <is>
+          <t>ZB-IULCY-YMQY100-CF140*140</t>
+        </is>
+      </c>
+      <c r="G96" s="1" t="inlineStr">
+        <is>
+          <t>B07F71J9RX</t>
+        </is>
+      </c>
+      <c r="H96" s="4" t="n">
+        <v>1218.0</v>
+      </c>
+      <c r="I96" s="4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J96" s="6" t="n">
+        <v>0.007389162561576354</v>
+      </c>
+      <c r="K96" s="7" t="n">
+        <v>0.5588888888888889</v>
+      </c>
+      <c r="L96" s="7" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="M96" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N96"/>
+      <c r="O96" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P96" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q96" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R96" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S96" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T96" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U96" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V96" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>raincoat-adult</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="inlineStr">
+        <is>
+          <t>民族风</t>
+        </is>
+      </c>
+      <c r="F97" s="1" t="inlineStr">
+        <is>
+          <t>YY-IULCY-XW100-COLORFUL</t>
+        </is>
+      </c>
+      <c r="G97" s="1" t="inlineStr">
+        <is>
+          <t>B07G9W28KV</t>
+        </is>
+      </c>
+      <c r="H97" s="4" t="n">
+        <v>1354.0</v>
+      </c>
+      <c r="I97" s="4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="J97" s="6" t="n">
+        <v>0.00812407680945347</v>
+      </c>
+      <c r="K97" s="7" t="n">
+        <v>0.1990909090909091</v>
+      </c>
+      <c r="L97" s="7" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M97" s="7" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="N97" s="6" t="n">
+        <v>0.09525880817746847</v>
+      </c>
+      <c r="O97" s="5" t="n">
+        <v>10.497716894977168</v>
+      </c>
+      <c r="P97" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q97" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R97" s="6" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="S97" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T97" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U97" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V97" s="7" t="n">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>43332.0</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t>raincoat-adult</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="inlineStr">
+        <is>
+          <t>民族风</t>
+        </is>
+      </c>
+      <c r="F98" s="1" t="inlineStr">
+        <is>
+          <t>YY-IULCY-XW100-DOG</t>
+        </is>
+      </c>
+      <c r="G98" s="1" t="inlineStr">
+        <is>
+          <t>B07G9T8HS2</t>
+        </is>
+      </c>
+      <c r="H98" s="4" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="I98" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J98" s="6" t="n">
+        <v>0.004975124378109453</v>
+      </c>
+      <c r="K98" s="7" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L98" s="7" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M98" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N98"/>
+      <c r="O98" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P98" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q98" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R98" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S98" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T98" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U98" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V98" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>tby精准关键词</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="inlineStr">
+        <is>
+          <t>Decoration</t>
+        </is>
+      </c>
+      <c r="F99" s="1" t="inlineStr">
+        <is>
+          <t>YY-IULCY-KS371-YL-M</t>
+        </is>
+      </c>
+      <c r="G99" s="1" t="inlineStr">
+        <is>
+          <t>B07CYN2LST</t>
+        </is>
+      </c>
+      <c r="H99" s="4" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="I99" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K99"/>
+      <c r="L99" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M99" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q99" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R99"/>
+      <c r="S99" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T99" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U99" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V99" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>tby精准关键词</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="inlineStr">
+        <is>
+          <t>广告组 1</t>
+        </is>
+      </c>
+      <c r="F100" s="1" t="inlineStr">
+        <is>
+          <t>YY-IULCY-XW100-LIGHT</t>
+        </is>
+      </c>
+      <c r="G100" s="1" t="inlineStr">
+        <is>
+          <t>B07G9VZ3NG</t>
+        </is>
+      </c>
+      <c r="H100" s="4" t="n">
+        <v>617.0</v>
+      </c>
+      <c r="I100" s="4" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J100" s="6" t="n">
+        <v>0.009724473257698542</v>
+      </c>
+      <c r="K100" s="7" t="n">
+        <v>0.4183333333333333</v>
+      </c>
+      <c r="L100" s="7" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M100" s="7" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="N100" s="6" t="n">
+        <v>0.10917790343627665</v>
+      </c>
+      <c r="O100" s="5" t="n">
+        <v>9.159362549800797</v>
+      </c>
+      <c r="P100" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q100" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R100" s="6" t="n">
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="S100" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T100" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U100" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V100" s="7" t="n">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>43334.0</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>tby精准关键词</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="inlineStr">
+        <is>
+          <t>广告组 1</t>
+        </is>
+      </c>
+      <c r="F101" s="1" t="inlineStr">
+        <is>
+          <t>YY-IULCY-XW100-COLORFUL</t>
+        </is>
+      </c>
+      <c r="G101" s="1" t="inlineStr">
+        <is>
+          <t>B07G9W28KV</t>
+        </is>
+      </c>
+      <c r="H101" s="4" t="n">
+        <v>727.0</v>
+      </c>
+      <c r="I101" s="4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J101" s="6" t="n">
+        <v>0.012379642365887207</v>
+      </c>
+      <c r="K101" s="7" t="n">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="L101" s="7" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M101" s="7" t="n">
+        <v>69.97</v>
+      </c>
+      <c r="N101" s="6" t="n">
+        <v>0.057881949406888664</v>
+      </c>
+      <c r="O101" s="5" t="n">
+        <v>17.276543209876543</v>
+      </c>
+      <c r="P101" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q101" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R101" s="6" t="n">
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="S101" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T101" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U101" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V101" s="7" t="n">
+        <v>69.97</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>桌布-精准一</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="inlineStr">
+        <is>
+          <t>雏菊桌布</t>
+        </is>
+      </c>
+      <c r="F102" s="1" t="inlineStr">
+        <is>
+          <t>YMQYQXDHKF140*140CM</t>
+        </is>
+      </c>
+      <c r="G102" s="1" t="inlineStr">
+        <is>
+          <t>B01C8QJQGM</t>
+        </is>
+      </c>
+      <c r="H102" s="4" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="I102" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J102" s="6" t="n">
+        <v>0.022471910112359553</v>
+      </c>
+      <c r="K102" s="7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="L102" s="7" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="M102" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N102"/>
+      <c r="O102" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P102" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q102" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R102" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S102" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T102" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U102" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V102" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>MTX</t>
+        </is>
+      </c>
+      <c r="E103" s="1" t="inlineStr">
+        <is>
+          <t>s90-低帮</t>
+        </is>
+      </c>
+      <c r="F103" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-DBWS90-GR-27</t>
+        </is>
+      </c>
+      <c r="G103" s="1" t="inlineStr">
+        <is>
+          <t>B07GBX646L</t>
+        </is>
+      </c>
+      <c r="H103" s="4" t="n">
+        <v>302.0</v>
+      </c>
+      <c r="I103" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J103" s="6" t="n">
+        <v>0.006622516556291392</v>
+      </c>
+      <c r="K103" s="7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L103" s="7" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M103" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N103"/>
+      <c r="O103" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P103" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q103" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R103" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S103" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T103" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U103" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V103" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>MTX</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="inlineStr">
+        <is>
+          <t>s90-低帮</t>
+        </is>
+      </c>
+      <c r="F104" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-GBWS90-KK-27</t>
+        </is>
+      </c>
+      <c r="G104" s="1" t="inlineStr">
+        <is>
+          <t>B07GBXR5T5</t>
+        </is>
+      </c>
+      <c r="H104" s="4" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="I104" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K104"/>
+      <c r="L104" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M104" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q104" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R104"/>
+      <c r="S104" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T104" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U104" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V104" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>MTX</t>
+        </is>
+      </c>
+      <c r="E105" s="1" t="inlineStr">
+        <is>
+          <t>s90-低帮</t>
+        </is>
+      </c>
+      <c r="F105" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-DBWS90-PK-26</t>
+        </is>
+      </c>
+      <c r="G105" s="1" t="inlineStr">
+        <is>
+          <t>B07GBZRPF7</t>
+        </is>
+      </c>
+      <c r="H105" s="4" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="I105" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J105" s="6" t="n">
+        <v>0.007352941176470587</v>
+      </c>
+      <c r="K105" s="7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L105" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M105" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N105"/>
+      <c r="O105" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P105" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q105" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R105" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S105" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T105" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U105" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V105" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>桌布-精准一</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="inlineStr">
+        <is>
+          <t>雏菊桌布</t>
+        </is>
+      </c>
+      <c r="F106" s="1" t="inlineStr">
+        <is>
+          <t>YMQYQXDHKF90*90CM</t>
+        </is>
+      </c>
+      <c r="G106" s="1" t="inlineStr">
+        <is>
+          <t>B01C8QJNVA</t>
+        </is>
+      </c>
+      <c r="H106" s="4" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="I106" s="4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J106" s="6" t="n">
+        <v>0.02464788732394366</v>
+      </c>
+      <c r="K106" s="7" t="n">
+        <v>0.18714285714285714</v>
+      </c>
+      <c r="L106" s="7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M106" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N106"/>
+      <c r="O106" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P106" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q106" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R106" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S106" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T106" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U106" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V106" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>棉拖</t>
+        </is>
+      </c>
+      <c r="E107" s="1" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="F107" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-M1759-GR-28</t>
+        </is>
+      </c>
+      <c r="G107" s="1" t="inlineStr">
+        <is>
+          <t>B07FPBTZTD</t>
+        </is>
+      </c>
+      <c r="H107" s="4" t="n">
+        <v>479.0</v>
+      </c>
+      <c r="I107" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J107" s="6" t="n">
+        <v>0.0041753653444676405</v>
+      </c>
+      <c r="K107" s="7" t="n">
+        <v>0.29500000000000004</v>
+      </c>
+      <c r="L107" s="7" t="n">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="M107" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N107"/>
+      <c r="O107" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P107" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q107" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R107" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S107" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T107" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U107" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V107" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>MTX</t>
+        </is>
+      </c>
+      <c r="E108" s="1" t="inlineStr">
+        <is>
+          <t>s90-高帮</t>
+        </is>
+      </c>
+      <c r="F108" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-GBWS90-PK-27</t>
+        </is>
+      </c>
+      <c r="G108" s="1" t="inlineStr">
+        <is>
+          <t>B07GBXRX9P</t>
+        </is>
+      </c>
+      <c r="H108" s="4" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="I108" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J108" s="6" t="n">
+        <v>0.011627906976744186</v>
+      </c>
+      <c r="K108" s="7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L108" s="7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M108" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N108"/>
+      <c r="O108" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P108" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q108" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R108" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S108" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T108" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U108" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V108" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>MTX</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="inlineStr">
+        <is>
+          <t>s90-高帮</t>
+        </is>
+      </c>
+      <c r="F109" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-DBWS90-KK-27</t>
+        </is>
+      </c>
+      <c r="G109" s="1" t="inlineStr">
+        <is>
+          <t>B07GBXLQPJ</t>
+        </is>
+      </c>
+      <c r="H109" s="4" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="I109" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J109" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K109"/>
+      <c r="L109" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M109" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q109" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R109"/>
+      <c r="S109" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T109" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U109" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V109" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="inlineStr">
+        <is>
+          <t>MTX</t>
+        </is>
+      </c>
+      <c r="E110" s="1" t="inlineStr">
+        <is>
+          <t>s90-高帮</t>
+        </is>
+      </c>
+      <c r="F110" s="1" t="inlineStr">
+        <is>
+          <t>MTX-IULHY-GBWS90-GR-26</t>
+        </is>
+      </c>
+      <c r="G110" s="1" t="inlineStr">
+        <is>
+          <t>B07GBY8DGQ</t>
+        </is>
+      </c>
+      <c r="H110" s="4" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="I110" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J110" s="6" t="n">
+        <v>0.013333333333333334</v>
+      </c>
+      <c r="K110" s="7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="L110" s="7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M110" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N110"/>
+      <c r="O110" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P110" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q110" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R110" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S110" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T110" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U110" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V110" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>43335.0</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D111" s="1" t="inlineStr">
+        <is>
+          <t>tby精准关键词</t>
+        </is>
+      </c>
+      <c r="E111" s="1" t="inlineStr">
+        <is>
+          <t>广告组 1</t>
+        </is>
+      </c>
+      <c r="F111" s="1" t="inlineStr">
+        <is>
+          <t>YI-IUYLTBH-Y0</t>
+        </is>
+      </c>
+      <c r="G111" s="1" t="inlineStr">
+        <is>
+          <t>B07BK4DF3D</t>
+        </is>
+      </c>
+      <c r="H111" s="4" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="I111" s="4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J111" s="6" t="n">
+        <v>0.012704174228675136</v>
+      </c>
+      <c r="K111" s="7" t="n">
+        <v>0.35571428571428576</v>
+      </c>
+      <c r="L111" s="7" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M111" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N111"/>
+      <c r="O111" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P111" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q111" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R111" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S111" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T111" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U111" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V111" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>raincoat-袖子-男士</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
+        <is>
+          <t>XZM200-男士袖子雨衣</t>
+        </is>
+      </c>
+      <c r="F112" s="1" t="inlineStr">
+        <is>
+          <t>YY-IULCY-XZM200-KK</t>
+        </is>
+      </c>
+      <c r="G112" s="1" t="inlineStr">
+        <is>
+          <t>B07G3XSNGG</t>
+        </is>
+      </c>
+      <c r="H112" s="4" t="n">
+        <v>860.0</v>
+      </c>
+      <c r="I112" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J112" s="6" t="n">
+        <v>0.0011627906976744186</v>
+      </c>
+      <c r="K112" s="7" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="L112" s="7" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M112" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N112"/>
+      <c r="O112" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P112" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q112" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R112" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S112" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T112" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U112" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V112" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>raincoat-袖子-男士</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="inlineStr">
+        <is>
+          <t>XZM200-男士袖子雨衣</t>
+        </is>
+      </c>
+      <c r="F113" s="1" t="inlineStr">
+        <is>
+          <t>YY-IULCY-XZM200-BK</t>
+        </is>
+      </c>
+      <c r="G113" s="1" t="inlineStr">
+        <is>
+          <t>B07G3S2G2D</t>
+        </is>
+      </c>
+      <c r="H113" s="4" t="n">
+        <v>1234.0</v>
+      </c>
+      <c r="I113" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J113" s="6" t="n">
+        <v>0.003241491085899514</v>
+      </c>
+      <c r="K113" s="7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L113" s="7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M113" s="7" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="N113" s="6" t="n">
+        <v>0.06959547629404089</v>
+      </c>
+      <c r="O113" s="5" t="n">
+        <v>14.368749999999999</v>
+      </c>
+      <c r="P113" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q113" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R113" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S113" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T113" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U113" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V113" s="7" t="n">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="inlineStr">
+        <is>
+          <t>raincoat-袖子-男士</t>
+        </is>
+      </c>
+      <c r="E114" s="1" t="inlineStr">
+        <is>
+          <t>XZM200-男士袖子雨衣</t>
+        </is>
+      </c>
+      <c r="F114" s="1" t="inlineStr">
+        <is>
+          <t>YY-IULCY-XZM200-BL</t>
+        </is>
+      </c>
+      <c r="G114" s="1" t="inlineStr">
+        <is>
+          <t>B07G3QLD7R</t>
+        </is>
+      </c>
+      <c r="H114" s="4" t="n">
+        <v>383.0</v>
+      </c>
+      <c r="I114" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J114" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K114"/>
+      <c r="L114" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M114" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q114" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R114"/>
+      <c r="S114" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T114" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U114" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V114" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>43336.0</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>43338.0</v>
+      </c>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D115" s="1" t="inlineStr">
+        <is>
+          <t>raincoat-袖子-男士</t>
+        </is>
+      </c>
+      <c r="E115" s="1" t="inlineStr">
+        <is>
+          <t>XZM200-男士袖子雨衣</t>
+        </is>
+      </c>
+      <c r="F115" s="1" t="inlineStr">
+        <is>
+          <t>YY-IULCY-XZM200-GN</t>
+        </is>
+      </c>
+      <c r="G115" s="1" t="inlineStr">
+        <is>
+          <t>B07G3SRXP2</t>
+        </is>
+      </c>
+      <c r="H115" s="4" t="n">
+        <v>1418.0</v>
+      </c>
+      <c r="I115" s="4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J115" s="6" t="n">
+        <v>0.003526093088857546</v>
+      </c>
+      <c r="K115" s="7" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="L115" s="7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M115" s="7" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="N115" s="6" t="n">
+        <v>0.08003479773814703</v>
+      </c>
+      <c r="O115" s="5" t="n">
+        <v>12.494565217391303</v>
+      </c>
+      <c r="P115" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q115" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R115" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S115" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T115" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U115" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V115" s="7" t="n">
+        <v>22.99</v>
       </c>
     </row>
   </sheetData>
